--- a/SALTO_DO_JACUI.xlsx
+++ b/SALTO_DO_JACUI.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MATERIAIS-FORNECIDOS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DATA-LIMITE-REQUISICOES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BENS-INTERINOS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TABELIÕES-DOAÇÃO" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CPIP" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DESFAZIMENTOS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DATA-LIMITE-REQUISICOES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BENS-INTERINOS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TABELIÕES-DOAÇÃO" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CPIP LISTA" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="DESFAZIMENTOS" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33,7 +32,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,26 +57,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -437,16 +448,16 @@
   </sheetPr>
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="202" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="8.28515625" customWidth="1" min="1" max="1"/>
+    <col width="177.5703125" customWidth="1" min="2" max="2"/>
+    <col width="18.140625" customWidth="1" min="3" max="3"/>
+    <col width="8.28515625" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -472,4427 +483,4427 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" t="n">
         <v>33468</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>CABO PATCH CORD CATEGORIA 6 DE COR AZUL E 1,5 METROS DE COMPRIMENTO.</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" t="n">
         <v>33469</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>CABO PATCH CORD CATEGORIA 6 DE COR AZUL E 2,5 METROS DE COMPRIMENTO</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" t="n">
         <v>33470</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>CABO PATCH CORD CATEGORIA 6 DE COR AZUL E 3,0 METROS DE COMPRIMENTO</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" t="n">
         <v>38615</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>CABO HDMI DE 10M. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA E/OU CADERNO DE ESPECIFICAÇÕES TÉCNICAS.</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" t="n">
         <v>36771</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>CABO HDMI M X HDMI M, VERSÃO 1.4, BLINDADO, COMPRIMENTO DE 3M.</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" t="n">
         <v>37413</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>EXTENSÃO DE TOMADA 3 M</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" t="n">
         <v>15102</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>LEITOR DE CÓDIGO DE BARRAS</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" t="n">
         <v>34600</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>MOUSEPAD EM TECIDO NA COR PRETA COM BASE ANTIDERRAPANTE E APOIO DE PUNHO.</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" t="n">
         <v>37535</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>HEADSET (FONE DE CABEÇA COM MICROFONE) USB. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA/CADERNO DE ESPECIFICAÇÕES TÉCNICAS.</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" t="n">
         <v>30020</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>LEITOR GRAVADOR DE CD E DVD EXTERNO, USB TIPO SLIM.</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" t="n">
         <v>37534</v>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>WEBCAM (CÂMERA WEB) HD. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA/CADERNO DE ESPECIFICAÇÕES TÉCNICAS.</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" t="n">
         <v>29590</v>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>ADAPTADOR DISPLAYPORT PARA HDMI. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" t="n">
         <v>33471</v>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>CABO PATCH CORD CATEGORIA 6 DE COR AZUL E 6,0 METROS DE COMPRIMENTO</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" t="n">
         <v>30021</v>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>LEITOR DE CARTÃO SMARTCARD USB.</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" t="n">
         <v>28482</v>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>WEBCAM HD USB COM MICROFONE EMBUTIDO.</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" t="n">
         <v>37925</v>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>CAFETEIRA ELÉTRICA, COM CAPACIDADE DE NO MÍNIMO 1,2L, JARRA DE AÇO INOX, COM SISTEMA CORTA-PINGO E TENSÃO 110 VOLTS.</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Copa</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" t="n">
         <v>37926</v>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>CAFETEIRA ELÉTRICA, COM CAPACIDADE DE NO MÍNIMO 1,2L, JARRA DE AÇO INOX, COM SISTEMA CORTA-PINGO E TENSÃO 220 VOLTS.</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Copa</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" t="n">
         <v>1228</v>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>GARRAFA TERMICA</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>copa</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" t="n">
         <v>4606</v>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>QUADRO BRANCO MAGNETICO TAM. 1,20X0,90M, MOLDURA EM ALUMINIO</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" t="n">
         <v>23887</v>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>QUADRO BRANCO, ALTO BRILHO, SUPERFÍCIE NÃO-ABRASIVA, DIMENSÕES 0,80 X 1,00 M</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" t="n">
         <v>18080</v>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>VENTILADOR COM PEDESTAL, 50CM DIÂMETRO, 110V</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" t="n">
         <v>18142</v>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>VENTILADOR COM PEDESTAL, 50CM DIÂMETRO, 220V</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" t="n">
         <v>22701</v>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>CAPACHO SINTÉTICO EM FIBRA VINIL, TAMANHO 2M X 1M, ESPESSURA MÍNIMA DO VINIL 11MM, TRAMA FUNDIDA NA BASE SÓLIDA, LAVÁVEL, ANTI-CHAMA, ANTIDERRAPANTE, COR CINZA CLARO, SEM TEXTO, BORDAS NA COR CINZA ES</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
+      <c r="A25" t="n">
         <v>22702</v>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>CAPACHO SINTÉTICO EM FIBRA VINIL, TAMANHO 900MM X 700MM, ESPESSURA MÍNIMA DO VINIL 11MM, TRAMA FUNDIDA NA BASE SÓLIDA, LAVÁVEL, ANTI-CHAMA, ANTIDERRAPANTE, COR CINZA CLARO, SEM TEXTO, BORDAS NA COR CI</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
+      <c r="A26" t="n">
         <v>35918</v>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>PILHA ALCALINA, 1,5V, TAMANHO MÉDIO (C)</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
+      <c r="A27" t="n">
         <v>35915</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>PILHA ALCALINA, 1,5V, TAMANHO PEQUENO (AA)</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
+      <c r="A28" t="n">
         <v>35916</v>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>PILHA ALCALINA, TIPO PALITO (AAA)</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
+      <c r="A29" t="n">
         <v>29324</v>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>APARELHO TELEFÔNICO ANALÓGICO, HOMOLOGADO PELA ANATEL</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
+      <c r="A30" t="n">
         <v>1164</v>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>BANDEIRA DO ESTADO DO RIO GRANDE DO SUL, DUPLA FACE, TRÊS PANOS, EM TECIDO 100% POLIÉSTER, MEDINDO 1,35 X 1,93M, IMPRESSÃO, DIGITAL COSTURAS DUPLAS EM NYLON, REFORÇADAS NAS LATERAIS E CANTOS, COM TARJ</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
+      <c r="A31" t="n">
         <v>24981</v>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>BANDEIRA DO MERCOSUL</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
+      <c r="A32" t="n">
         <v>1163</v>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>BANDEIRA NACIONAL, DUPLA FACE, TRÊS PANOS, EM 100% POLIÉSTER, MEDINDO 1,35 X 1,93M, IMPRESSÃO DIGITAL, COSTURAS DUPLAS EM NYLON, REFORÇADAS NAS LATERAIS E CANTOS COM TARJA NA COR BRANCA COM ILHOSES NI</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
+      <c r="A33" t="n">
         <v>12033</v>
       </c>
-      <c r="B33" s="3" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>CADEADO 35MM, COM DUAS CHAVES</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n">
+      <c r="A34" t="n">
         <v>1904</v>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>CADEADO 50MM, COM DUAS CHAVES</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D34" s="3" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n">
+      <c r="A35" t="n">
         <v>14815</v>
       </c>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>CARRINHO TIPO CARREGADOR DE MALA</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
+      <c r="A36" t="n">
         <v>27867</v>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>DISPLAY DE PAREDE CONFECCIONADO EM PLÁSTICO PVC CRISTAL DE ALTA TRANSPARÊNCIA. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n">
+      <c r="A37" t="n">
         <v>2491</v>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>ESCADA METÁLICA COM 03 DEGRAUS</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n">
+      <c r="A38" t="n">
         <v>1204</v>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>ESCADA METÁLICA COM 05 DEGRAUS</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
+      <c r="A39" t="n">
         <v>1920</v>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>ESCADA METÁLICA COM 07 DEGRAUS</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
+      <c r="A40" t="n">
         <v>11161</v>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>TELEFONE SEM FIO</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
+      <c r="A41" t="n">
         <v>8157</v>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>FOGÃO COM 04 QUEIMADORES, FORNO</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n">
+      <c r="A42" t="n">
         <v>37956</v>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>BEBEDOURO DE PRESSÃO COM 2 PIAS (CONJUGADAS), CAPACIDADE DE 4 LITROS/HORA, 110V, GABINETE EM AÇO INOX. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
+      <c r="A43" t="n">
         <v>37957</v>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>BEBEDOURO DE PRESSÃO COM 2 PIAS (CONJUGADAS), CAPACIDADE DE 4 LITROS/HORA, 220V, GABINETE EM AÇO INOX. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n">
+      <c r="A44" t="n">
         <v>15577</v>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>BEBEDOURO DE PRESSÃO, 110V</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n">
+      <c r="A45" t="n">
         <v>8156</v>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>BEBEDOURO DE PRESSÃO, 220V</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n">
+      <c r="A46" t="n">
         <v>15316</v>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>FORNO MICROONDAS 110V</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n">
+      <c r="A47" t="n">
         <v>9742</v>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>FORNO MICROONDAS, 220V</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n">
+      <c r="A48" t="n">
         <v>10211</v>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>REFRIGERADOR 110 VOLTS</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D48" s="3" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n">
+      <c r="A49" t="n">
         <v>8155</v>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>REFRIGERADOR 220 VOLTS</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D49" s="3" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n">
+      <c r="A50" t="n">
         <v>12092</v>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>PROJETOR MULTIMIDIA</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n">
+      <c r="A51" t="n">
         <v>38984</v>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>SUPORTE DE PAREDE PARA TELEVISOR TELA PLANA</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n">
+      <c r="A52" t="n">
         <v>7096</v>
       </c>
-      <c r="B52" s="3" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>TELA PROJECAO</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n">
+      <c r="A53" t="n">
         <v>38980</v>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>TELEVISOR LED DE 43 POLEGADAS</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n">
+      <c r="A54" t="n">
         <v>38979</v>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>TELEVISOR LED DE 55 POLEGADAS</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n">
+      <c r="A55" t="n">
         <v>36840</v>
       </c>
-      <c r="B55" s="3" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RACK PARA TELEVISOR LCD, COM CAPACIDADE DE SUPORTAR TELEVISORES DE 37 A 55 POLEGADAS. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n">
+      <c r="A56" t="n">
         <v>1148</v>
       </c>
-      <c r="B56" s="3" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>TESOURA MEDIA 7 POLEGADAS</t>
         </is>
       </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n">
+      <c r="A57" t="n">
         <v>2360</v>
       </c>
-      <c r="B57" s="3" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>CAIXA DE MADEIRA P/CORRESPONDENCIA 34X24 CM</t>
         </is>
       </c>
-      <c r="C57" s="3" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n">
+      <c r="A58" t="n">
         <v>1766</v>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>CAIXA DE MADEIRA P/CORRESPONDENCIA 34X24 CM, SANFONADA</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n">
+      <c r="A59" t="n">
         <v>23314</v>
       </c>
-      <c r="B59" s="3" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>GRAMPEADOR DE MESA PARA GRANDES VOLUMES</t>
         </is>
       </c>
-      <c r="C59" s="3" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n">
+      <c r="A60" t="n">
         <v>36245</v>
       </c>
-      <c r="B60" s="3" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>GRAMPEADOR DE MESA, METÁLICO, COM ESTRUTURA REFORÇADA,  BASE ANTIDERRAPANTE, COMPRIMENTO MÍNIMO DE 18CM, CANALETA EM AÇO CROMADO, COM CAPACIDADE MÍNIMA DE CARGA DE UM PENTE DE 200 GRAMPOS TIPO 26/6 E</t>
         </is>
       </c>
-      <c r="C60" s="3" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n">
+      <c r="A61" t="n">
         <v>1147</v>
       </c>
-      <c r="B61" s="3" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>PERFURADOR DE PAPEL</t>
         </is>
       </c>
-      <c r="C61" s="3" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D61" s="3" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n">
+      <c r="A62" t="n">
         <v>23886</v>
       </c>
-      <c r="B62" s="3" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>PERFURADOR DE PAPEL PARA GRANDES VOLUMES, METÁLICO, REFORÇADO, CAPACIDADE PARA PERFURAR 06MM (EQUIVAVENTE A 60 FOLHAS 75G) SEM GOLPEIO NA HASTE (SOLICITADA AMOSTRA)</t>
         </is>
       </c>
-      <c r="C62" s="3" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D62" s="3" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n">
+      <c r="A63" t="n">
         <v>37596</v>
       </c>
-      <c r="B63" s="3" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>CADEIRA DIRETIVA GIRATÓRIA ESPALDAR ALTO E APOIO CABEÇA - 700X930X1200-1315MM (LXPXA); ALTURA DO ASSENTO= 450-565MM. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA</t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Estofados</t>
         </is>
       </c>
-      <c r="D63" s="3" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n">
+      <c r="A64" t="n">
         <v>37597</v>
       </c>
-      <c r="B64" s="3" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>CADEIRA OPERACIONAL GIRATÓRIA COM ESPALDAR ALTO - DIMENSÕES MÉDIAS: 700X810X970-1085MM (LXPXA); ALTURA DO ASSENTO= 450-565MM. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C64" s="3" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Estofados</t>
         </is>
       </c>
-      <c r="D64" s="3" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n">
+      <c r="A65" t="n">
         <v>21960</v>
       </c>
-      <c r="B65" s="3" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>FITA ADESIVA  48MM X 50M, "TJ/RS - ARQUIVO CENTRALIZADO"</t>
         </is>
       </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n">
+      <c r="A66" t="n">
         <v>16360</v>
       </c>
-      <c r="B66" s="3" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>FITA ADESIVA TRANPARENTE 48 X 50M, IMPRESSA: "DMP/TJ - NÃO RECEBA SE A EMBALAGEM ESTIVER VIOLADA"</t>
         </is>
       </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n">
+      <c r="A67" t="n">
         <v>12336</v>
       </c>
-      <c r="B67" s="3" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>FITA ADESIVA TRANSPARENTE 48MM X 50M</t>
         </is>
       </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="n">
+      <c r="A68" t="n">
         <v>1374</v>
       </c>
-      <c r="B68" s="3" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>APONTADOR DE LÁPIS COMUM</t>
         </is>
       </c>
-      <c r="C68" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D68" s="3" t="inlineStr">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="n">
+      <c r="A69" t="n">
         <v>4219</v>
       </c>
-      <c r="B69" s="3" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>BORRACHA PARA LÁPIS</t>
         </is>
       </c>
-      <c r="C69" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D69" s="3" t="inlineStr">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="n">
+      <c r="A70" t="n">
         <v>24932</v>
       </c>
-      <c r="B70" s="3" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>ESPONJEIRA MOLHA DEDO EM PASTA COM, NO MÍNIMO, 12G</t>
         </is>
       </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D70" s="3" t="inlineStr">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="n">
+      <c r="A71" t="n">
         <v>4738</v>
       </c>
-      <c r="B71" s="3" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>ESTILETE COM CABO, LAMINA DE 09MM DE LARGURA</t>
         </is>
       </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D71" s="3" t="inlineStr">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n">
+      <c r="A72" t="n">
         <v>27518</v>
       </c>
-      <c r="B72" s="3" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>FITA ADESIVA TRANSPARENTE, EM ROLO DE 12MM X 30 M</t>
         </is>
       </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D72" s="3" t="inlineStr">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="n">
+      <c r="A73" t="n">
         <v>37467</v>
       </c>
-      <c r="B73" s="3" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>FITA DE PAPEL KRAFT LISO, REFORÇADA PARA EMPACOTAMENTO, ALTA RESISTÊNCIA, FLEXIBILIDADE E ADERÊNCIA, LARGURA MÍNIMA DE 48MM X 50M.</t>
         </is>
       </c>
-      <c r="C73" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D73" s="3" t="inlineStr">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n">
+      <c r="A74" t="n">
         <v>2045</v>
       </c>
-      <c r="B74" s="3" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>SACO PLASTICO COM 04 FUROS</t>
         </is>
       </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="inlineStr">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="n">
+      <c r="A75" t="n">
         <v>8020</v>
       </c>
-      <c r="B75" s="3" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>CANETA AZUL PARA QUADRO BRANCO DE FORMICA</t>
         </is>
       </c>
-      <c r="C75" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="n">
+      <c r="A76" t="n">
         <v>1387</v>
       </c>
-      <c r="B76" s="3" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>CANETA ESFEROGRAFICA AZUL</t>
         </is>
       </c>
-      <c r="C76" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D76" s="3" t="inlineStr">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="n">
+      <c r="A77" t="n">
         <v>1388</v>
       </c>
-      <c r="B77" s="3" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>CANETA ESFEROGRAFICA PRETA</t>
         </is>
       </c>
-      <c r="C77" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="inlineStr">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="n">
+      <c r="A78" t="n">
         <v>1389</v>
       </c>
-      <c r="B78" s="3" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>CANETA ESFEROGRAFICA VERMELHA</t>
         </is>
       </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="inlineStr">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="n">
+      <c r="A79" t="n">
         <v>1947</v>
       </c>
-      <c r="B79" s="3" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>CANETA LUMI COLOR AMARELA</t>
         </is>
       </c>
-      <c r="C79" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D79" s="3" t="inlineStr">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="n">
+      <c r="A80" t="n">
         <v>2205</v>
       </c>
-      <c r="B80" s="3" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>CANETA LUMI COLOR VERDE</t>
         </is>
       </c>
-      <c r="C80" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D80" s="3" t="inlineStr">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="n">
+      <c r="A81" t="n">
         <v>9137</v>
       </c>
-      <c r="B81" s="3" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>CANETA PARA RETROPROJETOR PRETA</t>
         </is>
       </c>
-      <c r="C81" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="n">
+      <c r="A82" t="n">
         <v>9138</v>
       </c>
-      <c r="B82" s="3" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>CANETA PARA RETROPROJETOR VERMELHA</t>
         </is>
       </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="inlineStr">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="n">
+      <c r="A83" t="n">
         <v>4812</v>
       </c>
-      <c r="B83" s="3" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>CANETA PRETA PARA QUADRO BRANCO DE FORMICA</t>
         </is>
       </c>
-      <c r="C83" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="n">
+      <c r="A84" t="n">
         <v>4810</v>
       </c>
-      <c r="B84" s="3" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>CANETA VERMELHA PARA QUADRO BRANCO DE FORMICA</t>
         </is>
       </c>
-      <c r="C84" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D84" s="3" t="inlineStr">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="n">
+      <c r="A85" t="n">
         <v>1532</v>
       </c>
-      <c r="B85" s="3" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>PINCEL ATOMICO AZUL</t>
         </is>
       </c>
-      <c r="C85" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D85" s="3" t="inlineStr">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="n">
+      <c r="A86" t="n">
         <v>4607</v>
       </c>
-      <c r="B86" s="3" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>APAGADOR PARA QUADRO MAGNETICO</t>
         </is>
       </c>
-      <c r="C86" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D86" s="3" t="inlineStr">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="n">
+      <c r="A87" t="n">
         <v>1422</v>
       </c>
-      <c r="B87" s="3" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>EXTRATOR DE GRAMPOS</t>
         </is>
       </c>
-      <c r="C87" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D87" s="3" t="inlineStr">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="n">
+      <c r="A88" t="n">
         <v>14968</v>
       </c>
-      <c r="B88" s="3" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>FAIXA ELÁSTICA SERIGRAFADA (PJ-RS), COM 3,5CM DE LARGURA E 50CM DE CIRCUNFERÊNCIA</t>
         </is>
       </c>
-      <c r="C88" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D88" s="3" t="inlineStr">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="n">
+      <c r="A89" t="n">
         <v>3687</v>
       </c>
-      <c r="B89" s="3" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>LACRE PARA MALOTE</t>
         </is>
       </c>
-      <c r="C89" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D89" s="3" t="inlineStr">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="n">
+      <c r="A90" t="n">
         <v>1207</v>
       </c>
-      <c r="B90" s="3" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>ALFINETE COM CABECA COLORIDA</t>
         </is>
       </c>
-      <c r="C90" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D90" s="3" t="inlineStr">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="n">
+      <c r="A91" t="n">
         <v>8195</v>
       </c>
-      <c r="B91" s="3" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>ATILHO DE BORRACHA, PACOTE</t>
         </is>
       </c>
-      <c r="C91" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D91" s="3" t="inlineStr">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>PACOTE</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="n">
+      <c r="A92" t="n">
         <v>1378</v>
       </c>
-      <c r="B92" s="3" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>BARBANTE GROSSO, 10 FIOS, ROLO COM, NO MÍNIMO 85% ALGODÃO, PESO MÍNIMO 270G, EMBALADOS EM PACOTES COM 06 ROLOS CADA.</t>
         </is>
       </c>
-      <c r="C92" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="inlineStr">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="n">
+      <c r="A93" t="n">
         <v>24991</v>
       </c>
-      <c r="B93" s="3" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>BOBINA DE PAPEL TÉRMICO DO TIPO TERMOSCRIPT KPH 856 AM</t>
         </is>
       </c>
-      <c r="C93" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D93" s="3" t="inlineStr">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="n">
+      <c r="A94" t="n">
         <v>26789</v>
       </c>
-      <c r="B94" s="3" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>BRAÇADEIRA DE PLÁSTICO EM PVC CRISTAL PARA APENSAMENTO DE PROCESSOS.</t>
         </is>
       </c>
-      <c r="C94" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="inlineStr">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="n">
+      <c r="A95" t="n">
         <v>1403</v>
       </c>
-      <c r="B95" s="3" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>CLIPS MÉDIO (2/0)</t>
         </is>
       </c>
-      <c r="C95" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D95" s="3" t="inlineStr">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="n">
+      <c r="A96" t="n">
         <v>2325</v>
       </c>
-      <c r="B96" s="3" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>COLA EM BASTAO</t>
         </is>
       </c>
-      <c r="C96" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D96" s="3" t="inlineStr">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="n">
+      <c r="A97" t="n">
         <v>1405</v>
       </c>
-      <c r="B97" s="3" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>COLA PLÁSTICA</t>
         </is>
       </c>
-      <c r="C97" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D97" s="3" t="inlineStr">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="n">
+      <c r="A98" t="n">
         <v>1409</v>
       </c>
-      <c r="B98" s="3" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>COLCHETE N 09</t>
         </is>
       </c>
-      <c r="C98" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D98" s="3" t="inlineStr">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="n">
+      <c r="A99" t="n">
         <v>1410</v>
       </c>
-      <c r="B99" s="3" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>COLCHETE N.º 11</t>
         </is>
       </c>
-      <c r="C99" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D99" s="3" t="inlineStr">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="n">
+      <c r="A100" t="n">
         <v>16826</v>
       </c>
-      <c r="B100" s="3" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>CORDÃO PERSONALIZADO PARA USO EM CRACHÁ</t>
         </is>
       </c>
-      <c r="C100" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D100" s="3" t="inlineStr">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="n">
+      <c r="A101" t="n">
         <v>10683</v>
       </c>
-      <c r="B101" s="3" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>DISCO CDR 700 MB</t>
         </is>
       </c>
-      <c r="C101" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D101" s="3" t="inlineStr">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="n">
+      <c r="A102" t="n">
         <v>4689</v>
       </c>
-      <c r="B102" s="3" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>FITA ADESIVA 12MM X 33M AMARELA</t>
         </is>
       </c>
-      <c r="C102" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D102" s="3" t="inlineStr">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="n">
+      <c r="A103" t="n">
         <v>4690</v>
       </c>
-      <c r="B103" s="3" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>FITA ADESIVA, AZUL, PLÁSTICA, EM ROLO DE 12MM X 30M.</t>
         </is>
       </c>
-      <c r="C103" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D103" s="3" t="inlineStr">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="n">
+      <c r="A104" t="n">
         <v>27124</v>
       </c>
-      <c r="B104" s="3" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>FITA ADESIVA, PRETA, PLÁSTICA, EM ROLO DE 12MM X 30M.</t>
         </is>
       </c>
-      <c r="C104" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="inlineStr">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="n">
+      <c r="A105" t="n">
         <v>2242</v>
       </c>
-      <c r="B105" s="3" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>FITA ADESIVA, VERMELHA, PLÁSTICA, EM ROLO DE 12MM X 30M.</t>
         </is>
       </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D105" s="3" t="inlineStr">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="n">
+      <c r="A106" t="n">
         <v>15330</v>
       </c>
-      <c r="B106" s="3" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>FITA AUTO-ADESIVA, ANTI-DERRAPANTE, PRETA, LARGURA 50 MM, ROLO 45 M</t>
         </is>
       </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D106" s="3" t="inlineStr">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="n">
+      <c r="A107" t="n">
         <v>17240</v>
       </c>
-      <c r="B107" s="3" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>FITA P/ PROTOCOLADOR MARCA DIMEP MODELO HORODATADOR II E HENRY PROT, COR AZUL</t>
         </is>
       </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D107" s="3" t="inlineStr">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="n">
+      <c r="A108" t="n">
         <v>15040</v>
       </c>
-      <c r="B108" s="3" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>FITA PARA DEMARCAÇÃO, ZEBRADA AMARELA COM PRETO, ROLO</t>
         </is>
       </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D108" s="3" t="inlineStr">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="n">
+      <c r="A109" t="n">
         <v>11117</v>
       </c>
-      <c r="B109" s="3" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>FITA PARA RELÓGIO PROTOCOLADOR ELETRÔNICO/DIGITAL, COR AZUL, HASTE LONGA, MOD. TECNIBRA TBA 2.0 E FAREP PTR-1.</t>
         </is>
       </c>
-      <c r="C109" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D109" s="3" t="inlineStr">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="n">
+      <c r="A110" t="n">
         <v>15230</v>
       </c>
-      <c r="B110" s="3" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>FITA PLÁSTICA PARA ARQUEAÇÃO 10 X 0,65 MM (PHOENIX)</t>
         </is>
       </c>
-      <c r="C110" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D110" s="3" t="inlineStr">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="n">
+      <c r="A111" t="n">
         <v>4175</v>
       </c>
-      <c r="B111" s="3" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>FITA RAFIA (1KG)</t>
         </is>
       </c>
-      <c r="C111" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D111" s="3" t="inlineStr">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="n">
+      <c r="A112" t="n">
         <v>1457</v>
       </c>
-      <c r="B112" s="3" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>GRAMPO 26 X 6</t>
         </is>
       </c>
-      <c r="C112" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D112" s="3" t="inlineStr">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="n">
+      <c r="A113" t="n">
         <v>8614</v>
       </c>
-      <c r="B113" s="3" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>GRAMPO 9 X 10 OU 23X10 PARA GRANDES VOLUMES</t>
         </is>
       </c>
-      <c r="C113" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D113" s="3" t="inlineStr">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="n">
+      <c r="A114" t="n">
         <v>36755</v>
       </c>
-      <c r="B114" s="3" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>LÁPIS PRETO N° 2, EM MADEIRA NATURAL  REFLORESTADA, FORMATO SEXTAVADO, APONTADO, GRAFITE RESISTENTE E ESCRITA MACIA, TRAÇO ESCURO COM EXCELENTE APAGABILIDADE, IDENTIFICAÇÃO DA MARCA E GRADUAÇÃO NO COR</t>
         </is>
       </c>
-      <c r="C114" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D114" s="3" t="inlineStr">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="n">
+      <c r="A115" t="n">
         <v>1151</v>
       </c>
-      <c r="B115" s="3" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>MALOTE DE LONA</t>
         </is>
       </c>
-      <c r="C115" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D115" s="3" t="inlineStr">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="n">
+      <c r="A116" t="n">
         <v>17305</v>
       </c>
-      <c r="B116" s="3" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>MÍDIA DE DVD GRAVÁVEL</t>
         </is>
       </c>
-      <c r="C116" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D116" s="3" t="inlineStr">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="n">
+      <c r="A117" t="n">
         <v>1533</v>
       </c>
-      <c r="B117" s="3" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>PINCEL ATOMICO PRETO</t>
         </is>
       </c>
-      <c r="C117" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D117" s="3" t="inlineStr">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="n">
+      <c r="A118" t="n">
         <v>1535</v>
       </c>
-      <c r="B118" s="3" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>PINCEL ATOMICO VERMELHO</t>
         </is>
       </c>
-      <c r="C118" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D118" s="3" t="inlineStr">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="n">
+      <c r="A119" t="n">
         <v>2937</v>
       </c>
-      <c r="B119" s="3" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>PRANCHETA</t>
         </is>
       </c>
-      <c r="C119" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D119" s="3" t="inlineStr">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="n">
+      <c r="A120" t="n">
         <v>1541</v>
       </c>
-      <c r="B120" s="3" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>REGUA DE 30CM</t>
         </is>
       </c>
-      <c r="C120" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D120" s="3" t="inlineStr">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="n">
+      <c r="A121" t="n">
         <v>16983</v>
       </c>
-      <c r="B121" s="3" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>RELÓGIO DE PAREDE, QUARTZO,  À PILHA, GABINETE EM PLÁSTICO</t>
         </is>
       </c>
-      <c r="C121" s="3" t="inlineStr">
-        <is>
-          <t>expediente</t>
-        </is>
-      </c>
-      <c r="D121" s="3" t="inlineStr">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>expediente</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="n">
+      <c r="A122" t="n">
         <v>17890</v>
       </c>
-      <c r="B122" s="3" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>ASSENTO PLÁSTICO BRANCO, PARA VASO SANITÁRIO</t>
         </is>
       </c>
-      <c r="C122" s="3" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D122" s="3" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="n">
+      <c r="A123" t="n">
         <v>37978</v>
       </c>
-      <c r="B123" s="3" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>CESTO DE LIXO PARA PAPÉIS, EM POLIPROPILENO, REDONDO, COR PRETA, ALTURA MÍNIMA 29 CM E DIÂMETRO MÍNIMO DE 23 CM.</t>
         </is>
       </c>
-      <c r="C123" s="3" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D123" s="3" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="n">
+      <c r="A124" t="n">
         <v>31077</v>
       </c>
-      <c r="B124" s="3" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>LIXEIRA 15 LITROS, ACIONAMENTO COM PEDAL, COR PRETA</t>
         </is>
       </c>
-      <c r="C124" s="3" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D124" s="3" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="n">
+      <c r="A125" t="n">
         <v>36750</v>
       </c>
-      <c r="B125" s="3" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>LIXEIRA EM PLÁSTICO POLIPROPILENO (PP), CAPACIDADE DE 25 LITROS, ACIONAMENTO POR PEDAL, SUPORTE PARA SACO DE LIXO, COR PRETA. MEDIDAS: (ALTURA) 58CM X (LARGURA) 24CM X 34CM (PROFUNDIDADE) COM VARIAÇÃO</t>
         </is>
       </c>
-      <c r="C125" s="3" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D125" s="3" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="n">
+      <c r="A126" t="n">
         <v>3428</v>
       </c>
-      <c r="B126" s="3" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>LUVA CIRURGICA TAMANHO MEDIO, AMBIDESTRA, CAIXA COM 100 UNIDADES</t>
         </is>
       </c>
-      <c r="C126" s="3" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D126" s="3" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="n">
+      <c r="A127" t="n">
         <v>3048</v>
       </c>
-      <c r="B127" s="3" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>LUVA CIRÚRGICA TAMANHO PEQUENO, AMBIDESTRA, CAIXA COM 100 UNIDADES</t>
         </is>
       </c>
-      <c r="C127" s="3" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D127" s="3" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="n">
+      <c r="A128" t="n">
         <v>28440</v>
       </c>
-      <c r="B128" s="3" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>DISPENSER PARA ÁLCOOL GEL/SABONETE LÍQUIDO, EM PLÁSTICO RESISTENTE, HERMETICAMENTE FECHADO, COM FURAÇÃO PARA AFIXAÇÃO EM PAREDE, ABERTURA SUPERIOR COM SISTEMA DE ROSCA QUE DISPENSE O USO DE CHAVE PARA</t>
         </is>
       </c>
-      <c r="C128" s="3" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D128" s="3" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="n">
+      <c r="A129" t="n">
         <v>37287</v>
       </c>
-      <c r="B129" s="3" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>DISPENSER PARA PAPEL INTERFOLHAS, EM MATERIAL INJETADO EM PLÁSTICO ABS BRANCO COM VISOR FRONTAL, COM CHAVE PLÁSTICA, REPOSIÇÃO DE PAPEL TOALHA 2 OU 3 DOBRAS, CAPACIDADE MÍNIMA DE 750 FOLHAS, KIT CONTE</t>
         </is>
       </c>
-      <c r="C129" s="3" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D129" s="3" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="n">
+      <c r="A130" t="n">
         <v>3049</v>
       </c>
-      <c r="B130" s="3" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>LUVA CIRURGICA TAMANHO GRANDE, AMBIDESTRA, CAIXA COM 100 UNIDADES</t>
         </is>
       </c>
-      <c r="C130" s="3" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D130" s="3" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="n">
+      <c r="A131" t="n">
         <v>2924</v>
       </c>
-      <c r="B131" s="3" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>LUVA DE BORRACHA, PARA LIMPEZA, TAMANHO GRANDE</t>
         </is>
       </c>
-      <c r="C131" s="3" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D131" s="3" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>PAR</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="n">
+      <c r="A132" t="n">
         <v>16845</v>
       </c>
-      <c r="B132" s="3" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>MÁSCARA CIRÚRGICA, BRANCA</t>
         </is>
       </c>
-      <c r="C132" s="3" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D132" s="3" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="n">
+      <c r="A133" t="n">
         <v>37248</v>
       </c>
-      <c r="B133" s="3" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>MÁSCARA REUTILIZÁVEL.</t>
         </is>
       </c>
-      <c r="C133" s="3" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D133" s="3" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="n">
+      <c r="A134" t="n">
         <v>37245</v>
       </c>
-      <c r="B134" s="3" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>PROTETOR FACIAL INCOLOR</t>
         </is>
       </c>
-      <c r="C134" s="3" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D134" s="3" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="n">
+      <c r="A135" t="n">
         <v>2960</v>
       </c>
-      <c r="B135" s="3" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>SUPORTE PLÁSTICO PARA PAPEL HIGIÊNICO</t>
         </is>
       </c>
-      <c r="C135" s="3" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D135" s="3" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="n">
+      <c r="A136" t="n">
         <v>37793</v>
       </c>
-      <c r="B136" s="3" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>LÂMPADA BULBO LED, POTÊNCIA 12 A 16W, 6500K, FLUXO LUMINOSO 1300 LM OU MAIOR, SOQUETE E27, VIDA ÚTIL 25000H, GARANTIA DE 3 ANOS (DO FABRICANTE).</t>
         </is>
       </c>
-      <c r="C136" s="3" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D136" s="3" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="n">
+      <c r="A137" t="n">
         <v>37792</v>
       </c>
-      <c r="B137" s="3" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>LÂMPADA BULBO LED, POTÊNCIA DE 7,5 A 9W, 4000K, FLUXO LUMINOSO 800 LM OU MAIOR, SOQUETE</t>
         </is>
       </c>
-      <c r="C137" s="3" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D137" s="3" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="n">
+      <c r="A138" t="n">
         <v>15566</v>
       </c>
-      <c r="B138" s="3" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>LÂMPADA DICRÓICA 50W, 12V</t>
         </is>
       </c>
-      <c r="C138" s="3" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D138" s="3" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="n">
+      <c r="A139" t="n">
         <v>15560</v>
       </c>
-      <c r="B139" s="3" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE COMPACTA  PL 26W</t>
         </is>
       </c>
-      <c r="C139" s="3" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D139" s="3" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="n">
+      <c r="A140" t="n">
         <v>29470</v>
       </c>
-      <c r="B140" s="3" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE COMPACTA ELETRÔNICA 20W, BASE E27, 127V, IRC&gt;80%, TEMPERATURA DE COR 6500 K, FLUXO LUMINOSO1200 LM, RENDIMENTO 59 LM/W, MANUTENÇÃO DE 75% DO FLUXO EM 5.000HORAS.MODELO DE REFERÊ</t>
         </is>
       </c>
-      <c r="C140" s="3" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D140" s="3" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="n">
+      <c r="A141" t="n">
         <v>29472</v>
       </c>
-      <c r="B141" s="3" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE TUBULAR 20W - SOQUETE G13</t>
         </is>
       </c>
-      <c r="C141" s="3" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D141" s="3" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="n">
+      <c r="A142" t="n">
         <v>1961</v>
       </c>
-      <c r="B142" s="3" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>LAMPADA FLUORESCENTE TUBULAR HO, 110W</t>
         </is>
       </c>
-      <c r="C142" s="3" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D142" s="3" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="n">
+      <c r="A143" t="n">
         <v>29475</v>
       </c>
-      <c r="B143" s="3" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE TUBULAR T5 14W, BASE G5</t>
         </is>
       </c>
-      <c r="C143" s="3" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D143" s="3" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="n">
+      <c r="A144" t="n">
         <v>29476</v>
       </c>
-      <c r="B144" s="3" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE TUBULAR T5 28W, BASE G5</t>
         </is>
       </c>
-      <c r="C144" s="3" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D144" s="3" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="n">
+      <c r="A145" t="n">
         <v>17900</v>
       </c>
-      <c r="B145" s="3" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE TUBULAR T8 16W</t>
         </is>
       </c>
-      <c r="C145" s="3" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D145" s="3" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="n">
+      <c r="A146" t="n">
         <v>17901</v>
       </c>
-      <c r="B146" s="3" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE TUBULAR T8 32W.</t>
         </is>
       </c>
-      <c r="C146" s="3" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D146" s="3" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="n">
+      <c r="A147" t="n">
         <v>29473</v>
       </c>
-      <c r="B147" s="3" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE, ESPIRAL, COMPACTA, ELETRÔNICA, 23 A 25W, FLUXO LUMINOSO MÍNIMO DE 1400 LM, TEMPERATURA DE COR 2700K, IRC&gt;80%, BASE E27, 127V, COMPRIMENTO MÁX; 132MM, RENDIMENTO 59LM/W, VIDA ÚTIL</t>
         </is>
       </c>
-      <c r="C147" s="3" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D147" s="3" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="n">
+      <c r="A148" t="n">
         <v>12026</v>
       </c>
-      <c r="B148" s="3" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>LAMPADA HALOGENA AR 70, 50W, 30 GRAUS, 12V</t>
         </is>
       </c>
-      <c r="C148" s="3" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D148" s="3" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="n">
+      <c r="A149" t="n">
         <v>37795</v>
       </c>
-      <c r="B149" s="3" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>LÂMPADA LED TUBULAR, POTÊNCIA 18W, 4000K, FLUXO LUMINOSO 1850 LM OU MAIOR, SOQUETE G13,</t>
         </is>
       </c>
-      <c r="C149" s="3" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D149" s="3" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="n">
+      <c r="A150" t="n">
         <v>37794</v>
       </c>
-      <c r="B150" s="3" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>LÂMPADA LED TUBULAR, POTÊNCIA 9W, 4000K, FLUXO LUMINOSO 900 LM OU MAIOR, SOQUETE G13,</t>
         </is>
       </c>
-      <c r="C150" s="3" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D150" s="3" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="n">
+      <c r="A151" t="n">
         <v>17915</v>
       </c>
-      <c r="B151" s="3" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>LÂMPADA VAPOR METÁLICO TUBULAR CLARA 250W, E40</t>
         </is>
       </c>
-      <c r="C151" s="3" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D151" s="3" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="n">
+      <c r="A152" t="n">
         <v>953</v>
       </c>
-      <c r="B152" s="3" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA 1 LÂMPADA HO 110W T10/T12, TENSÃO DE ENTRADA 127 A 220V, BIVOLT AUTOMÁTICO</t>
         </is>
       </c>
-      <c r="C152" s="3" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D152" s="3" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="3" t="n">
+      <c r="A153" t="n">
         <v>28676</v>
       </c>
-      <c r="B153" s="3" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X14W A 2X35W, TENSÃO 220V +/-10%, PARTIDA RÁPIDA OU INSTANTÂNEA,  FATOR DE POTÊNCIA &gt; 0,96, FATOR DE REATOR &gt; 0,99, THD MÁXIMO DE 10%. DEVE ATENDER</t>
         </is>
       </c>
-      <c r="C153" s="3" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D153" s="3" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="n">
+      <c r="A154" t="n">
         <v>27298</v>
       </c>
-      <c r="B154" s="3" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X14W, TENSÃO 220V +/-10%, PARTIDA RÁPIDA OU INSTANTÂNEA,  FATOR DE POTÊNCIA &gt; 0,96, FATOR DE REATOR &gt; 0,99, THD MÁXIMO DE 10%. DEVE ATENDER AS NBR</t>
         </is>
       </c>
-      <c r="C154" s="3" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D154" s="3" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="n">
+      <c r="A155" t="n">
         <v>17906</v>
       </c>
-      <c r="B155" s="3" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X16W, 127V</t>
         </is>
       </c>
-      <c r="C155" s="3" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D155" s="3" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="n">
+      <c r="A156" t="n">
         <v>29492</v>
       </c>
-      <c r="B156" s="3" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X20W, TENSÂO 127V</t>
         </is>
       </c>
-      <c r="C156" s="3" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D156" s="3" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="n">
+      <c r="A157" t="n">
         <v>29493</v>
       </c>
-      <c r="B157" s="3" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X28W, TENSÃO 127V</t>
         </is>
       </c>
-      <c r="C157" s="3" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D157" s="3" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="n">
+      <c r="A158" t="n">
         <v>27296</v>
       </c>
-      <c r="B158" s="3" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X28W, TENSÃO 127V +/-10%, PARTIDA RÁPIDA OU INSTANTÂNEA,  FATOR DE POTÊNCIA &gt; 0,96, FATOR DE REATOR &gt; 0,99, THD MÁXIMO DE 10%. DEVE ATENDER AS NBR</t>
         </is>
       </c>
-      <c r="C158" s="3" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D158" s="3" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="n">
+      <c r="A159" t="n">
         <v>29489</v>
       </c>
-      <c r="B159" s="3" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, TENSÃO DE ALIMENTAÇÃO EM 220V+-10%, 2 X 16W, COM SISTEMA DE MULTITENSÃO PARA LÂMPADAS DE 100 A 275V, PARTIDA RÁPIDA OU INSTANTÂNEA, FATOR DE POTÊNCI</t>
         </is>
       </c>
-      <c r="C159" s="3" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D159" s="3" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="3" t="n">
+      <c r="A160" t="n">
         <v>26018</v>
       </c>
-      <c r="B160" s="3" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA LÂMPADAS FLUORESCENTES, 1X16W, MONOVOLT TENSÃO 127V  OU BIVOLT.</t>
         </is>
       </c>
-      <c r="C160" s="3" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D160" s="3" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="n">
+      <c r="A161" t="n">
         <v>29491</v>
       </c>
-      <c r="B161" s="3" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO, TENSÃO DE ALIMENTAÇÃO EM 220V+-10%, 2X14W, COM SISTEMA DE MULTITENSÃO PARA LÂMPADAS DE 105 A 250V</t>
         </is>
       </c>
-      <c r="C161" s="3" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D161" s="3" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="n">
+      <c r="A162" t="n">
         <v>27560</v>
       </c>
-      <c r="B162" s="3" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>ARMÁRIO DE AÇO MULTIUSO/VESTIÁRIO - AMV4 600X450X1820 (LARGURA X PROFUNDIDADE X ALTURA) COM 4 PORTAS</t>
         </is>
       </c>
-      <c r="C162" s="3" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>Móveis de Aço</t>
         </is>
       </c>
-      <c r="D162" s="3" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="n">
+      <c r="A163" t="n">
         <v>27561</v>
       </c>
-      <c r="B163" s="3" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>ARMÁRIO DE AÇO MULTIUSO/VESTIÁRIO - AMV6 900X450X1820 (LARGURA X PROFUNDIDADE X ALTURA) COM 6 PORTAS.</t>
         </is>
       </c>
-      <c r="C163" s="3" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>Móveis de Aço</t>
         </is>
       </c>
-      <c r="D163" s="3" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="n">
+      <c r="A164" t="n">
         <v>11628</v>
       </c>
-      <c r="B164" s="3" t="inlineStr">
+      <c r="B164" t="inlineStr">
         <is>
           <t>CABIDEIRO DE MADEIRA</t>
         </is>
       </c>
-      <c r="C164" s="3" t="inlineStr">
+      <c r="C164" t="inlineStr">
         <is>
           <t>Móveis de Madeira</t>
         </is>
       </c>
-      <c r="D164" s="3" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="n">
+      <c r="A165" t="n">
         <v>1514</v>
       </c>
-      <c r="B165" s="3" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t>PAPEL A4 (PCTE 500 FOLHAS)</t>
         </is>
       </c>
-      <c r="C165" s="3" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D165" s="3" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>PACOTE</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="n">
+      <c r="A166" t="n">
         <v>24507</v>
       </c>
-      <c r="B166" s="3" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>PAPEL A4 RECICLADO</t>
         </is>
       </c>
-      <c r="C166" s="3" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D166" s="3" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>PCT</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="3" t="n">
+      <c r="A167" t="n">
         <v>33618</v>
       </c>
-      <c r="B167" s="3" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>CAIXA PARA ARQUIVO MORTO, EM PAPELÃO ONDULADO SIMPLES, SEMIKRAFT, MEDIDAS MÍNIMAS DE 35,5 X 13,5 X 24,5CM, PESO MÍNIMO DA CAIXA 200G,</t>
         </is>
       </c>
-      <c r="C167" s="3" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D167" s="3" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="n">
+      <c r="A168" t="n">
         <v>17659</v>
       </c>
-      <c r="B168" s="3" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>SENHAS DE ATENDIMENTOS DE 000 A 999, ROLO COM LARGURA 34MM</t>
         </is>
       </c>
-      <c r="C168" s="3" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D168" s="3" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="n">
+      <c r="A169" t="n">
         <v>11044</v>
       </c>
-      <c r="B169" s="3" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>AGENDA PADRÃO TJ, ANO ÍMPAR</t>
         </is>
       </c>
-      <c r="C169" s="3" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D169" s="3" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="3" t="n">
+      <c r="A170" t="n">
         <v>8014</v>
       </c>
-      <c r="B170" s="3" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>AGENDA PADRÃO TJ, ANO PAR</t>
         </is>
       </c>
-      <c r="C170" s="3" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D170" s="3" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="3" t="n">
+      <c r="A171" t="n">
         <v>26831</v>
       </c>
-      <c r="B171" s="3" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>BOBINA TÉRMICA</t>
         </is>
       </c>
-      <c r="C171" s="3" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D171" s="3" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="3" t="n">
+      <c r="A172" t="n">
         <v>15526</v>
       </c>
-      <c r="B172" s="3" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>ETIQUETA  ADESIVA, 99 X 55,8 MM (L X A), 10 UN POR FOLHA, CX C/ 100 FOLHAS.</t>
         </is>
       </c>
-      <c r="C172" s="3" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D172" s="3" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="n">
+      <c r="A173" t="n">
         <v>24245</v>
       </c>
-      <c r="B173" s="3" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>ETIQUETA 99 X 67,7MM (L X A), 08 UNIDADES POR FOLHA</t>
         </is>
       </c>
-      <c r="C173" s="3" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D173" s="3" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="3" t="n">
+      <c r="A174" t="n">
         <v>1484</v>
       </c>
-      <c r="B174" s="3" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>LIVRO REGISTRO DE COISAS APREENDIDAS</t>
         </is>
       </c>
-      <c r="C174" s="3" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D174" s="3" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>LIVRO</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="n">
+      <c r="A175" t="n">
         <v>1485</v>
       </c>
-      <c r="B175" s="3" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>LIVRO REGISTRO DE MANDADOS</t>
         </is>
       </c>
-      <c r="C175" s="3" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D175" s="3" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="n">
+      <c r="A176" t="n">
         <v>4678</v>
       </c>
-      <c r="B176" s="3" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>PAPEL FLIP CHART</t>
         </is>
       </c>
-      <c r="C176" s="3" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D176" s="3" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="3" t="n">
+      <c r="A177" t="n">
         <v>1539</v>
       </c>
-      <c r="B177" s="3" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>REGISTRADOR PARA OFICIO LOMBADA LARGA</t>
         </is>
       </c>
-      <c r="C177" s="3" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D177" s="3" t="inlineStr">
+      <c r="D177" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="3" t="n">
+      <c r="A178" t="n">
         <v>18</v>
       </c>
-      <c r="B178" s="3" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>PJ 018 ENVELOPE PARDO PEQUENO - PODER JUDICIARIO</t>
         </is>
       </c>
-      <c r="C178" s="3" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D178" s="3" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="3" t="n">
+      <c r="A179" t="n">
         <v>20</v>
       </c>
-      <c r="B179" s="3" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>PJ 020 ENVELOPE PARDO GRANDE- PODER JUDICIARIO</t>
         </is>
       </c>
-      <c r="C179" s="3" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D179" s="3" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="3" t="n">
+      <c r="A180" t="n">
         <v>34575</v>
       </c>
-      <c r="B180" s="3" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>ENVELOPE PARDO, EM PAPEL KRAFT, GRAMATURA MÍNIMA 80G/M2, DIMENSÕES 230 X 165MM. ACONDICIONADO EM PACOTE DE PAPEL KRAFT 80 G/M², FIBRA LONGA, RESISTENTE, ENCERADO, COM 250 UNIDADES CADA.</t>
         </is>
       </c>
-      <c r="C180" s="3" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D180" s="3" t="inlineStr">
+      <c r="D180" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="3" t="n">
+      <c r="A181" t="n">
         <v>1530</v>
       </c>
-      <c r="B181" s="3" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>FICHA "NÃO" VOTAÇÃO JURADOS</t>
         </is>
       </c>
-      <c r="C181" s="3" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D181" s="3" t="inlineStr">
+      <c r="D181" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="n">
+      <c r="A182" t="n">
         <v>1061</v>
       </c>
-      <c r="B182" s="3" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>FICHA "SIM" VOTACAO JURADOS</t>
         </is>
       </c>
-      <c r="C182" s="3" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D182" s="3" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="3" t="n">
+      <c r="A183" t="n">
         <v>2</v>
       </c>
-      <c r="B183" s="3" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>PJ 002 PAPEL OFICIO SEM MARGEM</t>
         </is>
       </c>
-      <c r="C183" s="3" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D183" s="3" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="3" t="n">
+      <c r="A184" t="n">
         <v>16</v>
       </c>
-      <c r="B184" s="3" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>PJ 016 REQUISICAO DE PASSAGEM</t>
         </is>
       </c>
-      <c r="C184" s="3" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D184" s="3" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="3" t="n">
+      <c r="A185" t="n">
         <v>19</v>
       </c>
-      <c r="B185" s="3" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>PJ 019 ENVELOPE BRANCO OFICIO - PODER JUDICIARIO</t>
         </is>
       </c>
-      <c r="C185" s="3" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D185" s="3" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="3" t="n">
+      <c r="A186" t="n">
         <v>21</v>
       </c>
-      <c r="B186" s="3" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>PJ 021 ENVELOPE BRANCO PEQUENO - TRIBUNAL DE JUSTICA</t>
         </is>
       </c>
-      <c r="C186" s="3" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D186" s="3" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="3" t="n">
+      <c r="A187" t="n">
         <v>27</v>
       </c>
-      <c r="B187" s="3" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>PJ 027 GUIA REMESSA CORRESPONDENCIA (P/ RELAÇÕES PÚBLICAS)</t>
         </is>
       </c>
-      <c r="C187" s="3" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D187" s="3" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="3" t="n">
+      <c r="A188" t="n">
         <v>35</v>
       </c>
-      <c r="B188" s="3" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>PJ 035 FICHA DE DISTRIBUICAO</t>
         </is>
       </c>
-      <c r="C188" s="3" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D188" s="3" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>FC</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="3" t="n">
+      <c r="A189" t="n">
         <v>59</v>
       </c>
-      <c r="B189" s="3" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>PJ 059 CAPA PROCESSO TRIBUNAL DE JUSTICA</t>
         </is>
       </c>
-      <c r="C189" s="3" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D189" s="3" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="3" t="n">
+      <c r="A190" t="n">
         <v>67</v>
       </c>
-      <c r="B190" s="3" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>PJ 067 ENVELOPE PARDO MEDIO - TRIBUNAL DE JUSTICA</t>
         </is>
       </c>
-      <c r="C190" s="3" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D190" s="3" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="3" t="n">
+      <c r="A191" t="n">
         <v>125</v>
       </c>
-      <c r="B191" s="3" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>PJ 125 GUIA REMESSA PROCESSOS CAMARAS/PROCESSAMENTO</t>
         </is>
       </c>
-      <c r="C191" s="3" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D191" s="3" t="inlineStr">
+      <c r="D191" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="3" t="n">
+      <c r="A192" t="n">
         <v>140</v>
       </c>
-      <c r="B192" s="3" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t>PJ 140 ENVELOPE BRANCO OFICIO - TRIBUNAL DE JUSTICA</t>
         </is>
       </c>
-      <c r="C192" s="3" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D192" s="3" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="3" t="n">
+      <c r="A193" t="n">
         <v>156</v>
       </c>
-      <c r="B193" s="3" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>PJ 156 GUIA DE ANDAMENTO 1 PROCESSO (PORTARIA TJ)</t>
         </is>
       </c>
-      <c r="C193" s="3" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D193" s="3" t="inlineStr">
+      <c r="D193" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="3" t="n">
+      <c r="A194" t="n">
         <v>10158</v>
       </c>
-      <c r="B194" s="3" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>PJ 158 DESPESA CONDUÇÃO OFICIAL DE JUSTIÇA - NÃO-NUMERADO</t>
         </is>
       </c>
-      <c r="C194" s="3" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D194" s="3" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="3" t="n">
+      <c r="A195" t="n">
         <v>162</v>
       </c>
-      <c r="B195" s="3" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>PJ 162 CARTAO SURSIS</t>
         </is>
       </c>
-      <c r="C195" s="3" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D195" s="3" t="inlineStr">
+      <c r="D195" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="3" t="n">
+      <c r="A196" t="n">
         <v>284</v>
       </c>
-      <c r="B196" s="3" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>PJ 284 AUTO GERAL</t>
         </is>
       </c>
-      <c r="C196" s="3" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D196" s="3" t="inlineStr">
+      <c r="D196" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="3" t="n">
+      <c r="A197" t="n">
         <v>338</v>
       </c>
-      <c r="B197" s="3" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>PJ 338 FOLHA CORRIDA</t>
         </is>
       </c>
-      <c r="C197" s="3" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D197" s="3" t="inlineStr">
+      <c r="D197" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="3" t="n">
+      <c r="A198" t="n">
         <v>351</v>
       </c>
-      <c r="B198" s="3" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>PJ 351 CARTAO APRESENTACAO DO BENEFICIADO - SURSIS</t>
         </is>
       </c>
-      <c r="C198" s="3" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D198" s="3" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="3" t="n">
+      <c r="A199" t="n">
         <v>396</v>
       </c>
-      <c r="B199" s="3" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>PJ 396 FICHA INFORMACAO DE EXAMES TECNICOS - JIJ</t>
         </is>
       </c>
-      <c r="C199" s="3" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D199" s="3" t="inlineStr">
+      <c r="D199" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="3" t="n">
+      <c r="A200" t="n">
         <v>418</v>
       </c>
-      <c r="B200" s="3" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>PJ 418 FICHA ANDAMENTO CIVEL</t>
         </is>
       </c>
-      <c r="C200" s="3" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D200" s="3" t="inlineStr">
+      <c r="D200" t="inlineStr">
         <is>
           <t>FC</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="3" t="n">
+      <c r="A201" t="n">
         <v>423</v>
       </c>
-      <c r="B201" s="3" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>PJ 423 FICHA ANDAMENTO PRECATORIA</t>
         </is>
       </c>
-      <c r="C201" s="3" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D201" s="3" t="inlineStr">
+      <c r="D201" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="3" t="n">
+      <c r="A202" t="n">
         <v>550</v>
       </c>
-      <c r="B202" s="3" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>PJ 550 PEDIDO DE PREFERENCIA - PLENO</t>
         </is>
       </c>
-      <c r="C202" s="3" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D202" s="3" t="inlineStr">
+      <c r="D202" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="3" t="n">
+      <c r="A203" t="n">
         <v>676</v>
       </c>
-      <c r="B203" s="3" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>PJ 676 - JIJ-OS-015</t>
         </is>
       </c>
-      <c r="C203" s="3" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D203" s="3" t="inlineStr">
+      <c r="D203" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="3" t="n">
+      <c r="A204" t="n">
         <v>691</v>
       </c>
-      <c r="B204" s="3" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>PJ 691 CAPA DE PROCESSO MATÉRIA CÍVEL (AZUL)</t>
         </is>
       </c>
-      <c r="C204" s="3" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D204" s="3" t="inlineStr">
+      <c r="D204" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="3" t="n">
+      <c r="A205" t="n">
         <v>692</v>
       </c>
-      <c r="B205" s="3" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>PJ 692 CAPA DE PROCESSO MATÉRIA CRIMINAL (ROSA)</t>
         </is>
       </c>
-      <c r="C205" s="3" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D205" s="3" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="3" t="n">
+      <c r="A206" t="n">
         <v>693</v>
       </c>
-      <c r="B206" s="3" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>PJ 693 CAPA DE PROCESSO COR VERDE (DIR. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C206" s="3" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D206" s="3" t="inlineStr">
+      <c r="D206" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="3" t="n">
+      <c r="A207" t="n">
         <v>694</v>
       </c>
-      <c r="B207" s="3" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>PJ 694 CAPA DE PROCESSO COR AMARELA (DIR. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C207" s="3" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D207" s="3" t="inlineStr">
+      <c r="D207" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="3" t="n">
+      <c r="A208" t="n">
         <v>695</v>
       </c>
-      <c r="B208" s="3" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>PJ 695 CAPA DE PROCESSO COR BRANCA (DIR. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C208" s="3" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D208" s="3" t="inlineStr">
+      <c r="D208" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="3" t="n">
+      <c r="A209" t="n">
         <v>696</v>
       </c>
-      <c r="B209" s="3" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>PJ 696 CAPA DE PROCESSO COR CINZA (DIR. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C209" s="3" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D209" s="3" t="inlineStr">
+      <c r="D209" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="3" t="n">
+      <c r="A210" t="n">
         <v>697</v>
       </c>
-      <c r="B210" s="3" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>PJ 697 CAPA DE PROCESSO COR LARANJA (DIR. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C210" s="3" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D210" s="3" t="inlineStr">
+      <c r="D210" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="n">
+      <c r="A211" t="n">
         <v>10251</v>
       </c>
-      <c r="B211" s="3" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>PJ 700 - ENVELOPE PARDO VAI-VEM, 240X340, TIMBRE TRIBUNAL DE JUSTICA</t>
         </is>
       </c>
-      <c r="C211" s="3" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D211" s="3" t="inlineStr">
+      <c r="D211" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="3" t="n">
+      <c r="A212" t="n">
         <v>11132</v>
       </c>
-      <c r="B212" s="3" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>PJ 708 PEDIDO DE ACORDAO PARA JURISPRUDENCIA</t>
         </is>
       </c>
-      <c r="C212" s="3" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D212" s="3" t="inlineStr">
+      <c r="D212" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="3" t="n">
+      <c r="A213" t="n">
         <v>11663</v>
       </c>
-      <c r="B213" s="3" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>PJ 719 - RELATORIO DE ENTREGA DAS GUIAS DE CONDUCAO</t>
         </is>
       </c>
-      <c r="C213" s="3" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D213" s="3" t="inlineStr">
+      <c r="D213" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="3" t="n">
+      <c r="A214" t="n">
         <v>12118</v>
       </c>
-      <c r="B214" s="3" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>PJ 721 BLOCO DE PUBLICACOES</t>
         </is>
       </c>
-      <c r="C214" s="3" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D214" s="3" t="inlineStr">
+      <c r="D214" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="3" t="n">
+      <c r="A215" t="n">
         <v>12332</v>
       </c>
-      <c r="B215" s="3" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>PJ 722 FICHA CADASTRAL</t>
         </is>
       </c>
-      <c r="C215" s="3" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D215" s="3" t="inlineStr">
+      <c r="D215" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="3" t="n">
+      <c r="A216" t="n">
         <v>16975</v>
       </c>
-      <c r="B216" s="3" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>PJ 728 CAPA DE PROCESSO - AGRAVOS (DEP. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C216" s="3" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D216" s="3" t="inlineStr">
+      <c r="D216" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="3" t="n">
+      <c r="A217" t="n">
         <v>17252</v>
       </c>
-      <c r="B217" s="3" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>PJ 730 SOLICITAÇÃO DE CÓPIAS</t>
         </is>
       </c>
-      <c r="C217" s="3" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D217" s="3" t="inlineStr">
+      <c r="D217" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="3" t="n">
+      <c r="A218" t="n">
         <v>17667</v>
       </c>
-      <c r="B218" s="3" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>PJ 731 CAPA DE PROCESSO THEMIS ADMIN</t>
         </is>
       </c>
-      <c r="C218" s="3" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D218" s="3" t="inlineStr">
+      <c r="D218" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="3" t="n">
+      <c r="A219" t="n">
         <v>22071</v>
       </c>
-      <c r="B219" s="3" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>PJ 731B CAPA DE PROCESSO THEMIS ADMIN, EM CARTOLINA 240G NA COR VERDE, COM DIMENSÕES, VINCAGEM E FURAÇÃO SIMILARES À CAPA PJ 059</t>
         </is>
       </c>
-      <c r="C219" s="3" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D219" s="3" t="inlineStr">
+      <c r="D219" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="3" t="n">
+      <c r="A220" t="n">
         <v>508</v>
       </c>
-      <c r="B220" s="3" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>PJ-508 - CARTAO MARCACAO DE CONSULTAS, EM PAPEL AMARELO OURO 180 G/M², IMPRESSÃO EM TINTA OFF-SET PRETA, 1X0, FORMATO 6,5X9CM, CONFORME MODELO. ACONDICIONADAS EM PACOTES DE PAPEL KRAFT 80 G/M², FIBRA</t>
         </is>
       </c>
-      <c r="C220" s="3" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D220" s="3" t="inlineStr">
+      <c r="D220" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="3" t="n">
+      <c r="A221" t="n">
         <v>24901</v>
       </c>
-      <c r="B221" s="3" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>PJ-732 - FORMULÁRIO PARA USO DA DISTRIBUIÇÃO DO FORO, NO FORMATO 17,5X7,4CM.</t>
         </is>
       </c>
-      <c r="C221" s="3" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D221" s="3" t="inlineStr">
+      <c r="D221" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="3" t="n">
+      <c r="A222" t="n">
         <v>4963</v>
       </c>
-      <c r="B222" s="3" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>TOGA PARA DESEMBARGADOR E JUIZ, SOB MEDIDA OU, EM TAMANHOS DIVERSOS.</t>
         </is>
       </c>
-      <c r="C222" s="3" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>uniformes</t>
         </is>
       </c>
-      <c r="D222" s="3" t="inlineStr">
+      <c r="D222" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4910,8 +4921,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="16.7109375" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4927,19 +4938,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Salto do Jacuí</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>4º dia útil</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4949,7 +4960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4957,20 +4968,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="34" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
-    <col width="21" customWidth="1" min="13" max="13"/>
-    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="13.140625" customWidth="1" min="2" max="2"/>
+    <col width="15.85546875" customWidth="1" min="3" max="3"/>
+    <col width="19.140625" customWidth="1" min="4" max="4"/>
+    <col width="36.140625" customWidth="1" min="5" max="5"/>
+    <col width="18.28515625" customWidth="1" min="6" max="6"/>
+    <col width="16.42578125" customWidth="1" min="7" max="7"/>
+    <col width="12.28515625" customWidth="1" min="8" max="8"/>
+    <col width="39.42578125" customWidth="1" min="9" max="9"/>
+    <col width="14.85546875" customWidth="1" min="10" max="10"/>
+    <col width="69.28515625" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="42.7109375" customWidth="1" min="13" max="13"/>
+    <col width="23.7109375" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5016,235 +5027,255 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Comarca</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Unidade</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Local</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Local.1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>TITULAR</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>INTERESSE NO LEILÃO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>PADRÃO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>SALTO DO JACUÍ</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SALTO DO JACUÍ </t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>455285</v>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>28/09/2023</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>06/11/2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">LEITOR BIOMÉTRICO - SERVENTIA EXTRAJUDICIAL - 
 LEITOR BIOMÉTRICO FUTRONIC FS8
 </t>
         </is>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" t="n">
         <v>185.9</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" t="n">
         <v>260</v>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SALTO DO JACUÍ </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>EXTRAJUDICIAIS</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>0507 - Serviço Notarial (TN, TP)</t>
         </is>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="L2" t="n">
         <v>507</v>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Jessica Alflen</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Sem resposta</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Padrão Extras</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>SALTO DO JACUÍ</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SALTO DO JACUÍ </t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>455286</v>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>28/09/2023</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>06/11/2023</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">LEITOR BIOMÉTRICO - SERVENTIA EXTRAJUDICIAL - 
 LEITOR BIOMÉTRICO FUTRONIC FS8
 </t>
         </is>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" t="n">
         <v>185.9</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" t="n">
         <v>260</v>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SALTO DO JACUÍ </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>EXTRAJUDICIAIS</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>0507 - Serviço Notarial (TN, TP)</t>
         </is>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="L3" t="n">
         <v>507</v>
       </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>Jessica Alflen</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Sem resposta</t>
         </is>
       </c>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Padrão Extras</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>SALTO DO JACUÍ</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SALTO DO JACUÍ </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>455287</v>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>28/09/2023</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>06/11/2023</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">LEITOR BIOMÉTRICO - SERVENTIA EXTRAJUDICIAL - 
 LEITOR BIOMÉTRICO FUTRONIC FS8
 </t>
         </is>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" t="n">
         <v>185.9</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" t="n">
         <v>260</v>
       </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SALTO DO JACUÍ </t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>EXTRAJUDICIAIS</t>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>0507 - Serviço Notarial (TN, TP)</t>
         </is>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="L4" t="n">
         <v>507</v>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Jessica Alflen</t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Sem resposta</t>
         </is>
       </c>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Padrão Extras</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5262,8 +5293,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="34" customWidth="1" min="2" max="2"/>
+    <col width="29.42578125" customWidth="1" min="1" max="1"/>
+    <col width="69.5703125" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5279,19 +5310,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>SALTO DO JACUÍ</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>0507 - Serviço Notarial (TN, TP)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5309,9 +5340,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="31.28515625" customWidth="1" min="1" max="1"/>
+    <col width="53.5703125" customWidth="1" min="2" max="2"/>
+    <col width="22.7109375" customWidth="1" min="3" max="3"/>
+    <col width="12.5703125" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5322,68 +5354,68 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MEMBRO</t>
+          <t>NOME COMPLETO</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CAPACITADO</t>
+          <t>CAPACITADO?</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Salto do Jacuí</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aristeu Tiecher </t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Aristeu Tiecher</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>SIM</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Salto do Jacuí</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Laureci Eduardo Carvalho da Costa</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>NÃO</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Salto do Jacuí</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Marina Chaves Teikowski</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>NÃO</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5401,19 +5433,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="21" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
-    <col width="21" customWidth="1" min="9" max="9"/>
-    <col width="17" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="30.28515625" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="19.42578125" customWidth="1" min="3" max="3"/>
+    <col width="17.28515625" customWidth="1" min="4" max="4"/>
+    <col width="34.28515625" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="15.7109375" customWidth="1" min="8" max="8"/>
+    <col width="20.5703125" customWidth="1" min="9" max="9"/>
+    <col width="22.85546875" customWidth="1" min="10" max="10"/>
+    <col width="16.140625" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="21" customWidth="1" min="13" max="13"/>
+    <col width="21.140625" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5474,7 +5506,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">TEMPO TOTAL </t>
+          <t>TEMPO TOTAL</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -5484,61 +5516,61 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Salto do Jacuí</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>8.2024.4636/000010-3</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Concluído</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>DIRETA</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Escola Catelo Branco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>MOBILIÁRIO</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="2" t="n">
         <v>45397</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="2" t="n">
         <v>45412</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="2" t="n">
         <v>45581</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" t="n">
         <v>42</v>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>CONCLUÍDO</t>
         </is>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" t="n">
         <v>184</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="2" t="n">
         <v>45608</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SALTO_DO_JACUI.xlsx
+++ b/SALTO_DO_JACUI.xlsx
@@ -2,16 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="BENS-INTERINOS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TABELIÕES-DOAÇÃO" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="CPIP LISTA" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="DESFAZIMENTOS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="DESFAZIMENTOS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TABELIÕES-DOAÇÃO" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="CPIP" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,14 +21,37 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <color rgb="FF363636"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -39,16 +63,42 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -57,17 +107,126 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -75,15 +234,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -448,16 +658,16 @@
   </sheetPr>
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8.28515625" customWidth="1" min="1" max="1"/>
-    <col width="177.5703125" customWidth="1" min="2" max="2"/>
+    <col width="12.85546875" customWidth="1" min="1" max="1"/>
+    <col width="177.28515625" customWidth="1" min="2" max="2"/>
     <col width="18.140625" customWidth="1" min="3" max="3"/>
-    <col width="8.28515625" customWidth="1" min="4" max="4"/>
+    <col width="12.85546875" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -466,4444 +676,4444 @@
           <t>Número</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Produto</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Família</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>unidade</t>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Unidade</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="4" t="n">
         <v>33468</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>CABO PATCH CORD CATEGORIA 6 DE COR AZUL E 1,5 METROS DE COMPRIMENTO.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="4" t="n">
         <v>33469</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>CABO PATCH CORD CATEGORIA 6 DE COR AZUL E 2,5 METROS DE COMPRIMENTO</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="4" t="n">
         <v>33470</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>CABO PATCH CORD CATEGORIA 6 DE COR AZUL E 3,0 METROS DE COMPRIMENTO</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="8" t="n">
         <v>38615</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>CABO HDMI DE 10M. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA E/OU CADERNO DE ESPECIFICAÇÕES TÉCNICAS.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="4" t="n">
         <v>36771</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>CABO HDMI M X HDMI M, VERSÃO 1.4, BLINDADO, COMPRIMENTO DE 3M.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UN.</t>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="4" t="n">
         <v>37413</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>EXTENSÃO DE TOMADA 3 M</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="4" t="n">
         <v>15102</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>LEITOR DE CÓDIGO DE BARRAS</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="4" t="n">
         <v>34600</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>MOUSEPAD EM TECIDO NA COR PRETA COM BASE ANTIDERRAPANTE E APOIO DE PUNHO.</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="4" t="n">
         <v>37535</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>HEADSET (FONE DE CABEÇA COM MICROFONE) USB. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA/CADERNO DE ESPECIFICAÇÕES TÉCNICAS.</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="4" t="n">
         <v>30020</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>LEITOR GRAVADOR DE CD E DVD EXTERNO, USB TIPO SLIM.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="4" t="n">
         <v>37534</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>WEBCAM (CÂMERA WEB) HD. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA/CADERNO DE ESPECIFICAÇÕES TÉCNICAS.</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="4" t="n">
         <v>29590</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>ADAPTADOR DISPLAYPORT PARA HDMI. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="4" t="n">
         <v>33471</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>CABO PATCH CORD CATEGORIA 6 DE COR AZUL E 6,0 METROS DE COMPRIMENTO</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="4" t="n">
         <v>30021</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>LEITOR DE CARTÃO SMARTCARD USB.</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="4" t="n">
         <v>28482</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>WEBCAM HD USB COM MICROFONE EMBUTIDO.</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="4" t="n">
         <v>37925</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>CAFETEIRA ELÉTRICA, COM CAPACIDADE DE NO MÍNIMO 1,2L, JARRA DE AÇO INOX, COM SISTEMA CORTA-PINGO E TENSÃO 110 VOLTS.</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>Copa</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>UN.</t>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="4" t="n">
         <v>37926</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>CAFETEIRA ELÉTRICA, COM CAPACIDADE DE NO MÍNIMO 1,2L, JARRA DE AÇO INOX, COM SISTEMA CORTA-PINGO E TENSÃO 220 VOLTS.</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>Copa</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UN.</t>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="4" t="n">
         <v>1228</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>GARRAFA TERMICA</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>copa</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>Copa</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="4" t="n">
         <v>4606</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>QUADRO BRANCO MAGNETICO TAM. 1,20X0,90M, MOLDURA EM ALUMINIO</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="4" t="n">
         <v>23887</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>QUADRO BRANCO, ALTO BRILHO, SUPERFÍCIE NÃO-ABRASIVA, DIMENSÕES 0,80 X 1,00 M</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="4" t="n">
         <v>18080</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>VENTILADOR COM PEDESTAL, 50CM DIÂMETRO, 110V</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="4" t="n">
         <v>18142</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>VENTILADOR COM PEDESTAL, 50CM DIÂMETRO, 220V</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="4" t="n">
         <v>22701</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>CAPACHO SINTÉTICO EM FIBRA VINIL, TAMANHO 2M X 1M, ESPESSURA MÍNIMA DO VINIL 11MM, TRAMA FUNDIDA NA BASE SÓLIDA, LAVÁVEL, ANTI-CHAMA, ANTIDERRAPANTE, COR CINZA CLARO, SEM TEXTO, BORDAS NA COR CINZA ES</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="4" t="n">
         <v>22702</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>CAPACHO SINTÉTICO EM FIBRA VINIL, TAMANHO 900MM X 700MM, ESPESSURA MÍNIMA DO VINIL 11MM, TRAMA FUNDIDA NA BASE SÓLIDA, LAVÁVEL, ANTI-CHAMA, ANTIDERRAPANTE, COR CINZA CLARO, SEM TEXTO, BORDAS NA COR CI</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="4" t="n">
         <v>35918</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>PILHA ALCALINA, 1,5V, TAMANHO MÉDIO (C)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="4" t="n">
         <v>35915</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>PILHA ALCALINA, 1,5V, TAMANHO PEQUENO (AA)</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="4" t="n">
         <v>35916</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>PILHA ALCALINA, TIPO PALITO (AAA)</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="4" t="n">
         <v>29324</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>APARELHO TELEFÔNICO ANALÓGICO, HOMOLOGADO PELA ANATEL</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>UN.</t>
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="4" t="n">
         <v>1164</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>BANDEIRA DO ESTADO DO RIO GRANDE DO SUL, DUPLA FACE, TRÊS PANOS, EM TECIDO 100% POLIÉSTER, MEDINDO 1,35 X 1,93M, IMPRESSÃO, DIGITAL COSTURAS DUPLAS EM NYLON, REFORÇADAS NAS LATERAIS E CANTOS, COM TARJ</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="4" t="n">
         <v>24981</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>BANDEIRA DO MERCOSUL</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="4" t="n">
         <v>1163</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>BANDEIRA NACIONAL, DUPLA FACE, TRÊS PANOS, EM 100% POLIÉSTER, MEDINDO 1,35 X 1,93M, IMPRESSÃO DIGITAL, COSTURAS DUPLAS EM NYLON, REFORÇADAS NAS LATERAIS E CANTOS COM TARJA NA COR BRANCA COM ILHOSES NI</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="4" t="n">
         <v>12033</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>CADEADO 35MM, COM DUAS CHAVES</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="4" t="n">
         <v>1904</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>CADEADO 50MM, COM DUAS CHAVES</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="4" t="n">
         <v>14815</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>CARRINHO TIPO CARREGADOR DE MALA</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="4" t="n">
         <v>27867</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>DISPLAY DE PAREDE CONFECCIONADO EM PLÁSTICO PVC CRISTAL DE ALTA TRANSPARÊNCIA. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="4" t="n">
         <v>2491</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>ESCADA METÁLICA COM 03 DEGRAUS</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="4" t="n">
         <v>1204</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>ESCADA METÁLICA COM 05 DEGRAUS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="4" t="n">
         <v>1920</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>ESCADA METÁLICA COM 07 DEGRAUS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="4" t="n">
         <v>11161</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>TELEFONE SEM FIO</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="6" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="4" t="n">
         <v>8157</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>FOGÃO COM 04 QUEIMADORES, FORNO</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="6" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="4" t="n">
         <v>37956</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>BEBEDOURO DE PRESSÃO COM 2 PIAS (CONJUGADAS), CAPACIDADE DE 4 LITROS/HORA, 110V, GABINETE EM AÇO INOX. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="6" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="4" t="n">
         <v>37957</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>BEBEDOURO DE PRESSÃO COM 2 PIAS (CONJUGADAS), CAPACIDADE DE 4 LITROS/HORA, 220V, GABINETE EM AÇO INOX. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="6" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="4" t="n">
         <v>15577</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>BEBEDOURO DE PRESSÃO, 110V</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="6" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="4" t="n">
         <v>8156</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>BEBEDOURO DE PRESSÃO, 220V</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="6" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="4" t="n">
         <v>15316</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>FORNO MICROONDAS 110V</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="6" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="4" t="n">
         <v>9742</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="5" t="inlineStr">
         <is>
           <t>FORNO MICROONDAS, 220V</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="6" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="4" t="n">
         <v>10211</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="5" t="inlineStr">
         <is>
           <t>REFRIGERADOR 110 VOLTS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="6" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="4" t="n">
         <v>8155</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="5" t="inlineStr">
         <is>
           <t>REFRIGERADOR 220 VOLTS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="6" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="4" t="n">
         <v>12092</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>PROJETOR MULTIMIDIA</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="6" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="4" t="n">
         <v>38984</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>SUPORTE DE PAREDE PARA TELEVISOR TELA PLANA</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="6" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="4" t="n">
         <v>7096</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>TELA PROJECAO</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="6" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="4" t="n">
         <v>38980</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="5" t="inlineStr">
         <is>
           <t>TELEVISOR LED DE 43 POLEGADAS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="6" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="4" t="n">
         <v>38979</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="5" t="inlineStr">
         <is>
           <t>TELEVISOR LED DE 55 POLEGADAS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="6" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="4" t="n">
         <v>36840</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>RACK PARA TELEVISOR LCD, COM CAPACIDADE DE SUPORTAR TELEVISORES DE 37 A 55 POLEGADAS. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="6" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="4" t="n">
         <v>1148</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="5" t="inlineStr">
         <is>
           <t>TESOURA MEDIA 7 POLEGADAS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="6" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="4" t="n">
         <v>2360</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>CAIXA DE MADEIRA P/CORRESPONDENCIA 34X24 CM</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="6" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="4" t="n">
         <v>1766</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="5" t="inlineStr">
         <is>
           <t>CAIXA DE MADEIRA P/CORRESPONDENCIA 34X24 CM, SANFONADA</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="6" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="4" t="n">
         <v>23314</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>GRAMPEADOR DE MESA PARA GRANDES VOLUMES</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="6" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="4" t="n">
         <v>36245</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>GRAMPEADOR DE MESA, METÁLICO, COM ESTRUTURA REFORÇADA,  BASE ANTIDERRAPANTE, COMPRIMENTO MÍNIMO DE 18CM, CANALETA EM AÇO CROMADO, COM CAPACIDADE MÍNIMA DE CARGA DE UM PENTE DE 200 GRAMPOS TIPO 26/6 E</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>GRAMPEADOR DE MESA, METÁLICO, COM ESTRUTURA REFORÇADA, BASE ANTIDERRAPANTE, COMPRIMENTO MÍNIMO DE 18CM, CANALETA EM AÇO CROMADO, COM CAPACIDADE MÍNIMA DE CARGA DE UM PENTE DE 200 GRAMPOS TIPO 26/6 E</t>
+        </is>
+      </c>
+      <c r="C60" s="6" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D60" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="4" t="n">
         <v>1147</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="5" t="inlineStr">
         <is>
           <t>PERFURADOR DE PAPEL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="6" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="4" t="n">
         <v>23886</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="5" t="inlineStr">
         <is>
           <t>PERFURADOR DE PAPEL PARA GRANDES VOLUMES, METÁLICO, REFORÇADO, CAPACIDADE PARA PERFURAR 06MM (EQUIVAVENTE A 60 FOLHAS 75G) SEM GOLPEIO NA HASTE (SOLICITADA AMOSTRA)</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" s="6" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" s="7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="4" t="n">
         <v>37596</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="5" t="inlineStr">
         <is>
           <t>CADEIRA DIRETIVA GIRATÓRIA ESPALDAR ALTO E APOIO CABEÇA - 700X930X1200-1315MM (LXPXA); ALTURA DO ASSENTO= 450-565MM. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="6" t="inlineStr">
         <is>
           <t>Estofados</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="4" t="n">
         <v>37597</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="5" t="inlineStr">
         <is>
           <t>CADEIRA OPERACIONAL GIRATÓRIA COM ESPALDAR ALTO - DIMENSÕES MÉDIAS: 700X810X970-1085MM (LXPXA); ALTURA DO ASSENTO= 450-565MM. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="6" t="inlineStr">
         <is>
           <t>Estofados</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="4" t="n">
         <v>21960</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>FITA ADESIVA  48MM X 50M, "TJ/RS - ARQUIVO CENTRALIZADO"</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>FITA ADESIVA 48MM X 50M, "TJ/RS - ARQUIVO CENTRALIZADO"</t>
+        </is>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" s="7" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="4" t="n">
         <v>16360</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="5" t="inlineStr">
         <is>
           <t>FITA ADESIVA TRANPARENTE 48 X 50M, IMPRESSA: "DMP/TJ - NÃO RECEBA SE A EMBALAGEM ESTIVER VIOLADA"</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" s="7" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="4" t="n">
         <v>12336</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="5" t="inlineStr">
         <is>
           <t>FITA ADESIVA TRANSPARENTE 48MM X 50M</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D67" s="7" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="4" t="n">
         <v>1374</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="5" t="inlineStr">
         <is>
           <t>APONTADOR DE LÁPIS COMUM</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="4" t="n">
         <v>4219</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="5" t="inlineStr">
         <is>
           <t>BORRACHA PARA LÁPIS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D69" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="4" t="n">
         <v>24932</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="5" t="inlineStr">
         <is>
           <t>ESPONJEIRA MOLHA DEDO EM PASTA COM, NO MÍNIMO, 12G</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="4" t="n">
         <v>4738</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="5" t="inlineStr">
         <is>
           <t>ESTILETE COM CABO, LAMINA DE 09MM DE LARGURA</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D71" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="4" t="n">
         <v>27518</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="5" t="inlineStr">
         <is>
           <t>FITA ADESIVA TRANSPARENTE, EM ROLO DE 12MM X 30 M</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D72" s="7" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="4" t="n">
         <v>37467</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="5" t="inlineStr">
         <is>
           <t>FITA DE PAPEL KRAFT LISO, REFORÇADA PARA EMPACOTAMENTO, ALTA RESISTÊNCIA, FLEXIBILIDADE E ADERÊNCIA, LARGURA MÍNIMA DE 48MM X 50M.</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" s="7" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="4" t="n">
         <v>2045</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="5" t="inlineStr">
         <is>
           <t>SACO PLASTICO COM 04 FUROS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D74" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="4" t="n">
         <v>8020</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="5" t="inlineStr">
         <is>
           <t>CANETA AZUL PARA QUADRO BRANCO DE FORMICA</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="4" t="n">
         <v>1387</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="5" t="inlineStr">
         <is>
           <t>CANETA ESFEROGRAFICA AZUL</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D76" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="4" t="n">
         <v>1388</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="5" t="inlineStr">
         <is>
           <t>CANETA ESFEROGRAFICA PRETA</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D77" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="4" t="n">
         <v>1389</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="5" t="inlineStr">
         <is>
           <t>CANETA ESFEROGRAFICA VERMELHA</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D78" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="4" t="n">
         <v>1947</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="5" t="inlineStr">
         <is>
           <t>CANETA LUMI COLOR AMARELA</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D79" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="4" t="n">
         <v>2205</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="5" t="inlineStr">
         <is>
           <t>CANETA LUMI COLOR VERDE</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D80" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="4" t="n">
         <v>9137</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="5" t="inlineStr">
         <is>
           <t>CANETA PARA RETROPROJETOR PRETA</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D81" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="4" t="n">
         <v>9138</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="5" t="inlineStr">
         <is>
           <t>CANETA PARA RETROPROJETOR VERMELHA</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="4" t="n">
         <v>4812</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="5" t="inlineStr">
         <is>
           <t>CANETA PRETA PARA QUADRO BRANCO DE FORMICA</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D83" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="4" t="n">
         <v>4810</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="5" t="inlineStr">
         <is>
           <t>CANETA VERMELHA PARA QUADRO BRANCO DE FORMICA</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D84" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="4" t="n">
         <v>1532</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="5" t="inlineStr">
         <is>
           <t>PINCEL ATOMICO AZUL</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D85" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="4" t="n">
         <v>4607</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="5" t="inlineStr">
         <is>
           <t>APAGADOR PARA QUADRO MAGNETICO</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D86" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" s="4" t="n">
         <v>1422</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" s="5" t="inlineStr">
         <is>
           <t>EXTRATOR DE GRAMPOS</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C87" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D87" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="4" t="n">
         <v>14968</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="5" t="inlineStr">
         <is>
           <t>FAIXA ELÁSTICA SERIGRAFADA (PJ-RS), COM 3,5CM DE LARGURA E 50CM DE CIRCUNFERÊNCIA</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D88" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="4" t="n">
         <v>3687</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="5" t="inlineStr">
         <is>
           <t>LACRE PARA MALOTE</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D89" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="4" t="n">
         <v>1207</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="5" t="inlineStr">
         <is>
           <t>ALFINETE COM CABECA COLORIDA</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D90" s="7" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" s="4" t="n">
         <v>8195</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" s="5" t="inlineStr">
         <is>
           <t>ATILHO DE BORRACHA, PACOTE</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C91" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D91" s="7" t="inlineStr">
         <is>
           <t>PACOTE</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="4" t="n">
         <v>1378</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="5" t="inlineStr">
         <is>
           <t>BARBANTE GROSSO, 10 FIOS, ROLO COM, NO MÍNIMO 85% ALGODÃO, PESO MÍNIMO 270G, EMBALADOS EM PACOTES COM 06 ROLOS CADA.</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D92" s="7" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="4" t="n">
         <v>24991</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="5" t="inlineStr">
         <is>
           <t>BOBINA DE PAPEL TÉRMICO DO TIPO TERMOSCRIPT KPH 856 AM</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D93" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="4" t="n">
         <v>26789</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="5" t="inlineStr">
         <is>
           <t>BRAÇADEIRA DE PLÁSTICO EM PVC CRISTAL PARA APENSAMENTO DE PROCESSOS.</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D94" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="4" t="n">
         <v>1403</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="5" t="inlineStr">
         <is>
           <t>CLIPS MÉDIO (2/0)</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D95" s="7" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="4" t="n">
         <v>2325</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="5" t="inlineStr">
         <is>
           <t>COLA EM BASTAO</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D96" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="4" t="n">
         <v>1405</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="5" t="inlineStr">
         <is>
           <t>COLA PLÁSTICA</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D97" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" s="4" t="n">
         <v>1409</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="5" t="inlineStr">
         <is>
           <t>COLCHETE N 09</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C98" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D98" s="7" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="4" t="n">
         <v>1410</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="5" t="inlineStr">
         <is>
           <t>COLCHETE N.º 11</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D99" s="7" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="4" t="n">
         <v>16826</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="5" t="inlineStr">
         <is>
           <t>CORDÃO PERSONALIZADO PARA USO EM CRACHÁ</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D100" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="4" t="n">
         <v>10683</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="5" t="inlineStr">
         <is>
           <t>DISCO CDR 700 MB</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D101" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="4" t="n">
         <v>4689</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="5" t="inlineStr">
         <is>
           <t>FITA ADESIVA 12MM X 33M AMARELA</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C102" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D102" s="7" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
+      <c r="A103" s="4" t="n">
         <v>4690</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="5" t="inlineStr">
         <is>
           <t>FITA ADESIVA, AZUL, PLÁSTICA, EM ROLO DE 12MM X 30M.</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C103" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D103" s="7" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="4" t="n">
         <v>27124</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="5" t="inlineStr">
         <is>
           <t>FITA ADESIVA, PRETA, PLÁSTICA, EM ROLO DE 12MM X 30M.</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D104" s="7" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="4" t="n">
         <v>2242</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="5" t="inlineStr">
         <is>
           <t>FITA ADESIVA, VERMELHA, PLÁSTICA, EM ROLO DE 12MM X 30M.</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D105" s="7" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="4" t="n">
         <v>15330</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="5" t="inlineStr">
         <is>
           <t>FITA AUTO-ADESIVA, ANTI-DERRAPANTE, PRETA, LARGURA 50 MM, ROLO 45 M</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D106" s="7" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="4" t="n">
         <v>17240</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="5" t="inlineStr">
         <is>
           <t>FITA P/ PROTOCOLADOR MARCA DIMEP MODELO HORODATADOR II E HENRY PROT, COR AZUL</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D107" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="4" t="n">
         <v>15040</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="5" t="inlineStr">
         <is>
           <t>FITA PARA DEMARCAÇÃO, ZEBRADA AMARELA COM PRETO, ROLO</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C108" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D108" s="7" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="4" t="n">
         <v>11117</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="5" t="inlineStr">
         <is>
           <t>FITA PARA RELÓGIO PROTOCOLADOR ELETRÔNICO/DIGITAL, COR AZUL, HASTE LONGA, MOD. TECNIBRA TBA 2.0 E FAREP PTR-1.</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C109" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D109" s="7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="4" t="n">
         <v>15230</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="5" t="inlineStr">
         <is>
           <t>FITA PLÁSTICA PARA ARQUEAÇÃO 10 X 0,65 MM (PHOENIX)</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D110" s="7" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="4" t="n">
         <v>4175</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="5" t="inlineStr">
         <is>
           <t>FITA RAFIA (1KG)</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D111" s="7" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="4" t="n">
         <v>1457</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="5" t="inlineStr">
         <is>
           <t>GRAMPO 26 X 6</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D112" s="7" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
+      <c r="A113" s="4" t="n">
         <v>8614</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" s="5" t="inlineStr">
         <is>
           <t>GRAMPO 9 X 10 OU 23X10 PARA GRANDES VOLUMES</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C113" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D113" s="7" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="4" t="n">
         <v>36755</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>LÁPIS PRETO N° 2, EM MADEIRA NATURAL  REFLORESTADA, FORMATO SEXTAVADO, APONTADO, GRAFITE RESISTENTE E ESCRITA MACIA, TRAÇO ESCURO COM EXCELENTE APAGABILIDADE, IDENTIFICAÇÃO DA MARCA E GRADUAÇÃO NO COR</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
+      <c r="B114" s="5" t="inlineStr">
+        <is>
+          <t>LÁPIS PRETO N° 2, EM MADEIRA NATURAL REFLORESTADA, FORMATO SEXTAVADO, APONTADO, GRAFITE RESISTENTE E ESCRITA MACIA, TRAÇO ESCURO COM EXCELENTE APAGABILIDADE, IDENTIFICAÇÃO DA MARCA E GRADUAÇÃO NO COR</t>
+        </is>
+      </c>
+      <c r="C114" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>UN.</t>
+      <c r="D114" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="4" t="n">
         <v>1151</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="5" t="inlineStr">
         <is>
           <t>MALOTE DE LONA</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D115" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="4" t="n">
         <v>17305</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="5" t="inlineStr">
         <is>
           <t>MÍDIA DE DVD GRAVÁVEL</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D116" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="4" t="n">
         <v>1533</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="5" t="inlineStr">
         <is>
           <t>PINCEL ATOMICO PRETO</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D117" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="4" t="n">
         <v>1535</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="5" t="inlineStr">
         <is>
           <t>PINCEL ATOMICO VERMELHO</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D118" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="4" t="n">
         <v>2937</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="5" t="inlineStr">
         <is>
           <t>PRANCHETA</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D119" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="4" t="n">
         <v>1541</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="5" t="inlineStr">
         <is>
           <t>REGUA DE 30CM</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D120" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="4" t="n">
         <v>16983</v>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>RELÓGIO DE PAREDE, QUARTZO,  À PILHA, GABINETE EM PLÁSTICO</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
+      <c r="B121" s="5" t="inlineStr">
+        <is>
+          <t>RELÓGIO DE PAREDE, QUARTZO, À PILHA, GABINETE EM PLÁSTICO</t>
+        </is>
+      </c>
+      <c r="C121" s="6" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D121" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="4" t="n">
         <v>17890</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="5" t="inlineStr">
         <is>
           <t>ASSENTO PLÁSTICO BRANCO, PARA VASO SANITÁRIO</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" s="6" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="D122" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="4" t="n">
         <v>37978</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="5" t="inlineStr">
         <is>
           <t>CESTO DE LIXO PARA PAPÉIS, EM POLIPROPILENO, REDONDO, COR PRETA, ALTURA MÍNIMA 29 CM E DIÂMETRO MÍNIMO DE 23 CM.</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="6" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="D123" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="4" t="n">
         <v>31077</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="5" t="inlineStr">
         <is>
           <t>LIXEIRA 15 LITROS, ACIONAMENTO COM PEDAL, COR PRETA</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="6" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D124" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="4" t="n">
         <v>36750</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="5" t="inlineStr">
         <is>
           <t>LIXEIRA EM PLÁSTICO POLIPROPILENO (PP), CAPACIDADE DE 25 LITROS, ACIONAMENTO POR PEDAL, SUPORTE PARA SACO DE LIXO, COR PRETA. MEDIDAS: (ALTURA) 58CM X (LARGURA) 24CM X 34CM (PROFUNDIDADE) COM VARIAÇÃO</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="6" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="D125" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="4" t="n">
         <v>3428</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="5" t="inlineStr">
         <is>
           <t>LUVA CIRURGICA TAMANHO MEDIO, AMBIDESTRA, CAIXA COM 100 UNIDADES</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" s="6" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D126" s="7" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="4" t="n">
         <v>3048</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="5" t="inlineStr">
         <is>
           <t>LUVA CIRÚRGICA TAMANHO PEQUENO, AMBIDESTRA, CAIXA COM 100 UNIDADES</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" s="6" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D127" s="7" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="4" t="n">
         <v>28440</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="5" t="inlineStr">
         <is>
           <t>DISPENSER PARA ÁLCOOL GEL/SABONETE LÍQUIDO, EM PLÁSTICO RESISTENTE, HERMETICAMENTE FECHADO, COM FURAÇÃO PARA AFIXAÇÃO EM PAREDE, ABERTURA SUPERIOR COM SISTEMA DE ROSCA QUE DISPENSE O USO DE CHAVE PARA</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" s="6" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D128" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="4" t="n">
         <v>37287</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="5" t="inlineStr">
         <is>
           <t>DISPENSER PARA PAPEL INTERFOLHAS, EM MATERIAL INJETADO EM PLÁSTICO ABS BRANCO COM VISOR FRONTAL, COM CHAVE PLÁSTICA, REPOSIÇÃO DE PAPEL TOALHA 2 OU 3 DOBRAS, CAPACIDADE MÍNIMA DE 750 FOLHAS, KIT CONTE</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" s="6" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D129" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="4" t="n">
         <v>3049</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="5" t="inlineStr">
         <is>
           <t>LUVA CIRURGICA TAMANHO GRANDE, AMBIDESTRA, CAIXA COM 100 UNIDADES</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" s="6" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D130" s="7" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="4" t="n">
         <v>2924</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="5" t="inlineStr">
         <is>
           <t>LUVA DE BORRACHA, PARA LIMPEZA, TAMANHO GRANDE</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" s="6" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D131" s="7" t="inlineStr">
         <is>
           <t>PAR</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="4" t="n">
         <v>16845</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="5" t="inlineStr">
         <is>
           <t>MÁSCARA CIRÚRGICA, BRANCA</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="6" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D132" s="7" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="4" t="n">
         <v>37248</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="5" t="inlineStr">
         <is>
           <t>MÁSCARA REUTILIZÁVEL.</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="6" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>UN.</t>
+      <c r="D133" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="4" t="n">
         <v>37245</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="5" t="inlineStr">
         <is>
           <t>PROTETOR FACIAL INCOLOR</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" s="6" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>UN.</t>
+      <c r="D134" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="4" t="n">
         <v>2960</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="5" t="inlineStr">
         <is>
           <t>SUPORTE PLÁSTICO PARA PAPEL HIGIÊNICO</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" s="6" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D135" s="7" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="11" t="n">
         <v>37793</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="12" t="inlineStr">
         <is>
           <t>LÂMPADA BULBO LED, POTÊNCIA 12 A 16W, 6500K, FLUXO LUMINOSO 1300 LM OU MAIOR, SOQUETE E27, VIDA ÚTIL 25000H, GARANTIA DE 3 ANOS (DO FABRICANTE).</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D136" s="7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
+      <c r="A137" s="11" t="n">
         <v>37792</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" s="12" t="inlineStr">
         <is>
           <t>LÂMPADA BULBO LED, POTÊNCIA DE 7,5 A 9W, 4000K, FLUXO LUMINOSO 800 LM OU MAIOR, SOQUETE</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C137" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D137" s="7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
+      <c r="A138" s="4" t="n">
         <v>15566</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B138" s="5" t="inlineStr">
         <is>
           <t>LÂMPADA DICRÓICA 50W, 12V</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C138" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="D138" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="4" t="n">
         <v>15560</v>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>LÂMPADA FLUORESCENTE COMPACTA  PL 26W</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
+      <c r="B139" s="5" t="inlineStr">
+        <is>
+          <t>LÂMPADA FLUORESCENTE COMPACTA PL 26W</t>
+        </is>
+      </c>
+      <c r="C139" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D139" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="4" t="n">
         <v>29470</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="5" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE COMPACTA ELETRÔNICA 20W, BASE E27, 127V, IRC&gt;80%, TEMPERATURA DE COR 6500 K, FLUXO LUMINOSO1200 LM, RENDIMENTO 59 LM/W, MANUTENÇÃO DE 75% DO FLUXO EM 5.000HORAS.MODELO DE REFERÊ</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D140" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="4" t="n">
         <v>29472</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="5" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE TUBULAR 20W - SOQUETE G13</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D141" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="4" t="n">
         <v>1961</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="5" t="inlineStr">
         <is>
           <t>LAMPADA FLUORESCENTE TUBULAR HO, 110W</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="D142" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="4" t="n">
         <v>29475</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="5" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE TUBULAR T5 14W, BASE G5</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="D143" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="4" t="n">
         <v>29476</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="5" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE TUBULAR T5 28W, BASE G5</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D144" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="4" t="n">
         <v>17900</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="5" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE TUBULAR T8 16W</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D145" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="4" t="n">
         <v>17901</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="5" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE TUBULAR T8 32W.</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="D146" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" s="4" t="n">
         <v>29473</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" s="5" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE, ESPIRAL, COMPACTA, ELETRÔNICA, 23 A 25W, FLUXO LUMINOSO MÍNIMO DE 1400 LM, TEMPERATURA DE COR 2700K, IRC&gt;80%, BASE E27, 127V, COMPRIMENTO MÁX; 132MM, RENDIMENTO 59LM/W, VIDA ÚTIL</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C147" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="D147" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
+      <c r="A148" s="4" t="n">
         <v>12026</v>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B148" s="5" t="inlineStr">
         <is>
           <t>LAMPADA HALOGENA AR 70, 50W, 30 GRAUS, 12V</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C148" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="D148" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="11" t="n">
         <v>37795</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="13" t="inlineStr">
         <is>
           <t>LÂMPADA LED TUBULAR, POTÊNCIA 18W, 4000K, FLUXO LUMINOSO 1850 LM OU MAIOR, SOQUETE G13,</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C149" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D149" s="7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="11" t="n">
         <v>37794</v>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="12" t="inlineStr">
         <is>
           <t>LÂMPADA LED TUBULAR, POTÊNCIA 9W, 4000K, FLUXO LUMINOSO 900 LM OU MAIOR, SOQUETE G13,</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C150" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D150" s="7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" s="4" t="n">
         <v>17915</v>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" s="5" t="inlineStr">
         <is>
           <t>LÂMPADA VAPOR METÁLICO TUBULAR CLARA 250W, E40</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C151" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D151" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" s="4" t="n">
         <v>953</v>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" s="5" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA 1 LÂMPADA HO 110W T10/T12, TENSÃO DE ENTRADA 127 A 220V, BIVOLT AUTOMÁTICO</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C152" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D152" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" s="4" t="n">
         <v>28676</v>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X14W A 2X35W, TENSÃO 220V +/-10%, PARTIDA RÁPIDA OU INSTANTÂNEA,  FATOR DE POTÊNCIA &gt; 0,96, FATOR DE REATOR &gt; 0,99, THD MÁXIMO DE 10%. DEVE ATENDER</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
+      <c r="B153" s="5" t="inlineStr">
+        <is>
+          <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X14W A 2X35W, TENSÃO 220V +/-10%, PARTIDA RÁPIDA OU INSTANTÂNEA, FATOR DE POTÊNCIA &gt; 0,96, FATOR DE REATOR &gt; 0,99, THD MÁXIMO DE 10%. DEVE ATENDER</t>
+        </is>
+      </c>
+      <c r="C153" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>UN.</t>
+      <c r="D153" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
+      <c r="A154" s="4" t="n">
         <v>27298</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X14W, TENSÃO 220V +/-10%, PARTIDA RÁPIDA OU INSTANTÂNEA,  FATOR DE POTÊNCIA &gt; 0,96, FATOR DE REATOR &gt; 0,99, THD MÁXIMO DE 10%. DEVE ATENDER AS NBR</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
+      <c r="B154" s="5" t="inlineStr">
+        <is>
+          <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X14W, TENSÃO 220V +/-10%, PARTIDA RÁPIDA OU INSTANTÂNEA, FATOR DE POTÊNCIA &gt; 0,96, FATOR DE REATOR &gt; 0,99, THD MÁXIMO DE 10%. DEVE ATENDER AS NBR</t>
+        </is>
+      </c>
+      <c r="C154" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D154" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" s="4" t="n">
         <v>17906</v>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="5" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X16W, 127V</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C155" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D155" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
+      <c r="A156" s="4" t="n">
         <v>29492</v>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B156" s="5" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X20W, TENSÂO 127V</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C156" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D156" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="4" t="n">
         <v>29493</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" s="5" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X28W, TENSÃO 127V</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C157" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D157" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="8" t="n">
         <v>27296</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X28W, TENSÃO 127V +/-10%, PARTIDA RÁPIDA OU INSTANTÂNEA,  FATOR DE POTÊNCIA &gt; 0,96, FATOR DE REATOR &gt; 0,99, THD MÁXIMO DE 10%. DEVE ATENDER AS NBR</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
+      <c r="B158" s="9" t="inlineStr">
+        <is>
+          <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X28W, TENSÃO 127V +/-10%, PARTIDA RÁPIDA OU INSTANTÂNEA, FATOR DE POTÊNCIA &gt; 0,96, FATOR DE REATOR &gt; 0,99, THD MÁXIMO DE 10%. DEVE ATENDER AS NBR</t>
+        </is>
+      </c>
+      <c r="C158" s="10" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D158" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="8" t="n">
         <v>29489</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="9" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, TENSÃO DE ALIMENTAÇÃO EM 220V+-10%, 2 X 16W, COM SISTEMA DE MULTITENSÃO PARA LÂMPADAS DE 100 A 275V, PARTIDA RÁPIDA OU INSTANTÂNEA, FATOR DE POTÊNCI</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C159" s="10" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="D159" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="4" t="n">
         <v>26018</v>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>REATOR ELETRÔNICO PARA LÂMPADAS FLUORESCENTES, 1X16W, MONOVOLT TENSÃO 127V  OU BIVOLT.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
+      <c r="B160" s="5" t="inlineStr">
+        <is>
+          <t>REATOR ELETRÔNICO PARA LÂMPADAS FLUORESCENTES, 1X16W, MONOVOLT TENSÃO 127V OU BIVOLT.</t>
+        </is>
+      </c>
+      <c r="C160" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="D160" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" s="4" t="n">
         <v>29491</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="5" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO, TENSÃO DE ALIMENTAÇÃO EM 220V+-10%, 2X14W, COM SISTEMA DE MULTITENSÃO PARA LÂMPADAS DE 105 A 250V</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C161" s="6" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D161" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="4" t="n">
         <v>27560</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="5" t="inlineStr">
         <is>
           <t>ARMÁRIO DE AÇO MULTIUSO/VESTIÁRIO - AMV4 600X450X1820 (LARGURA X PROFUNDIDADE X ALTURA) COM 4 PORTAS</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" s="6" t="inlineStr">
         <is>
           <t>Móveis de Aço</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="D162" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="4" t="n">
         <v>27561</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="5" t="inlineStr">
         <is>
           <t>ARMÁRIO DE AÇO MULTIUSO/VESTIÁRIO - AMV6 900X450X1820 (LARGURA X PROFUNDIDADE X ALTURA) COM 6 PORTAS.</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C163" s="6" t="inlineStr">
         <is>
           <t>Móveis de Aço</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="D163" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
+      <c r="A164" s="4" t="n">
         <v>11628</v>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B164" s="5" t="inlineStr">
         <is>
           <t>CABIDEIRO DE MADEIRA</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C164" s="6" t="inlineStr">
         <is>
           <t>Móveis de Madeira</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="D164" s="7" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
+      <c r="A165" s="4" t="n">
         <v>1514</v>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B165" s="5" t="inlineStr">
         <is>
           <t>PAPEL A4 (PCTE 500 FOLHAS)</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C165" s="6" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D165" s="7" t="inlineStr">
         <is>
           <t>PACOTE</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
+      <c r="A166" s="4" t="n">
         <v>24507</v>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B166" s="5" t="inlineStr">
         <is>
           <t>PAPEL A4 RECICLADO</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C166" s="6" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="D166" s="7" t="inlineStr">
         <is>
           <t>PCT</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
+      <c r="A167" s="4" t="n">
         <v>33618</v>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B167" s="5" t="inlineStr">
         <is>
           <t>CAIXA PARA ARQUIVO MORTO, EM PAPELÃO ONDULADO SIMPLES, SEMIKRAFT, MEDIDAS MÍNIMAS DE 35,5 X 13,5 X 24,5CM, PESO MÍNIMO DA CAIXA 200G,</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C167" s="6" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="D167" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
+      <c r="A168" s="4" t="n">
         <v>17659</v>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B168" s="5" t="inlineStr">
         <is>
           <t>SENHAS DE ATENDIMENTOS DE 000 A 999, ROLO COM LARGURA 34MM</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C168" s="6" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="D168" s="7" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="4" t="n">
         <v>11044</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="5" t="inlineStr">
         <is>
           <t>AGENDA PADRÃO TJ, ANO ÍMPAR</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169" s="6" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="D169" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="4" t="n">
         <v>8014</v>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="5" t="inlineStr">
         <is>
           <t>AGENDA PADRÃO TJ, ANO PAR</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" s="6" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="D170" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="4" t="n">
         <v>26831</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="5" t="inlineStr">
         <is>
           <t>BOBINA TÉRMICA</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="6" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="D171" s="7" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="4" t="n">
         <v>15526</v>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>ETIQUETA  ADESIVA, 99 X 55,8 MM (L X A), 10 UN POR FOLHA, CX C/ 100 FOLHAS.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
+      <c r="B172" s="5" t="inlineStr">
+        <is>
+          <t>ETIQUETA ADESIVA, 99 X 55,8 MM (L X A), 10 UN POR FOLHA, CX C/ 100 FOLHAS.</t>
+        </is>
+      </c>
+      <c r="C172" s="6" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="D172" s="7" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="4" t="n">
         <v>24245</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="5" t="inlineStr">
         <is>
           <t>ETIQUETA 99 X 67,7MM (L X A), 08 UNIDADES POR FOLHA</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" s="6" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="D173" s="7" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="4" t="n">
         <v>1484</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="5" t="inlineStr">
         <is>
           <t>LIVRO REGISTRO DE COISAS APREENDIDAS</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="6" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="D174" s="7" t="inlineStr">
         <is>
           <t>LIVRO</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="4" t="n">
         <v>1485</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="5" t="inlineStr">
         <is>
           <t>LIVRO REGISTRO DE MANDADOS</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="6" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="D175" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="4" t="n">
         <v>4678</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="5" t="inlineStr">
         <is>
           <t>PAPEL FLIP CHART</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="6" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="D176" s="7" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="4" t="n">
         <v>1539</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="5" t="inlineStr">
         <is>
           <t>REGISTRADOR PARA OFICIO LOMBADA LARGA</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="6" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="D177" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="5" t="inlineStr">
         <is>
           <t>PJ 018 ENVELOPE PARDO PEQUENO - PODER JUDICIARIO</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="D178" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="5" t="inlineStr">
         <is>
           <t>PJ 020 ENVELOPE PARDO GRANDE- PODER JUDICIARIO</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="D179" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="4" t="n">
         <v>34575</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="5" t="inlineStr">
         <is>
           <t>ENVELOPE PARDO, EM PAPEL KRAFT, GRAMATURA MÍNIMA 80G/M2, DIMENSÕES 230 X 165MM. ACONDICIONADO EM PACOTE DE PAPEL KRAFT 80 G/M², FIBRA LONGA, RESISTENTE, ENCERADO, COM 250 UNIDADES CADA.</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="D180" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="4" t="n">
         <v>1530</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="5" t="inlineStr">
         <is>
           <t>FICHA "NÃO" VOTAÇÃO JURADOS</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="D181" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="4" t="n">
         <v>1061</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="5" t="inlineStr">
         <is>
           <t>FICHA "SIM" VOTACAO JURADOS</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="D182" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="5" t="inlineStr">
         <is>
           <t>PJ 002 PAPEL OFICIO SEM MARGEM</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="D183" s="7" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="5" t="inlineStr">
         <is>
           <t>PJ 016 REQUISICAO DE PASSAGEM</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="D184" s="7" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="5" t="inlineStr">
         <is>
           <t>PJ 019 ENVELOPE BRANCO OFICIO - PODER JUDICIARIO</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="D185" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="5" t="inlineStr">
         <is>
           <t>PJ 021 ENVELOPE BRANCO PEQUENO - TRIBUNAL DE JUSTICA</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="D186" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
+      <c r="A187" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="5" t="inlineStr">
         <is>
           <t>PJ 027 GUIA REMESSA CORRESPONDENCIA (P/ RELAÇÕES PÚBLICAS)</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C187" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="D187" s="7" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="5" t="inlineStr">
         <is>
           <t>PJ 035 FICHA DE DISTRIBUICAO</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C188" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="D188" s="7" t="inlineStr">
         <is>
           <t>FC</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="4" t="n">
         <v>59</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="5" t="inlineStr">
         <is>
           <t>PJ 059 CAPA PROCESSO TRIBUNAL DE JUSTICA</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="D189" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="5" t="inlineStr">
         <is>
           <t>PJ 067 ENVELOPE PARDO MEDIO - TRIBUNAL DE JUSTICA</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C190" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="D190" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
+      <c r="A191" s="4" t="n">
         <v>125</v>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B191" s="5" t="inlineStr">
         <is>
           <t>PJ 125 GUIA REMESSA PROCESSOS CAMARAS/PROCESSAMENTO</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C191" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="D191" s="7" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
+      <c r="A192" s="4" t="n">
         <v>140</v>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B192" s="5" t="inlineStr">
         <is>
           <t>PJ 140 ENVELOPE BRANCO OFICIO - TRIBUNAL DE JUSTICA</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="C192" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="D192" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
+      <c r="A193" s="4" t="n">
         <v>156</v>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="5" t="inlineStr">
         <is>
           <t>PJ 156 GUIA DE ANDAMENTO 1 PROCESSO (PORTARIA TJ)</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C193" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="D193" s="7" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
+      <c r="A194" s="4" t="n">
         <v>10158</v>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="5" t="inlineStr">
         <is>
           <t>PJ 158 DESPESA CONDUÇÃO OFICIAL DE JUSTIÇA - NÃO-NUMERADO</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C194" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="D194" s="7" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" s="4" t="n">
         <v>162</v>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="5" t="inlineStr">
         <is>
           <t>PJ 162 CARTAO SURSIS</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C195" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>UN.</t>
+      <c r="D195" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
+      <c r="A196" s="4" t="n">
         <v>284</v>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="5" t="inlineStr">
         <is>
           <t>PJ 284 AUTO GERAL</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C196" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="D196" s="7" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="4" t="n">
         <v>338</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="5" t="inlineStr">
         <is>
           <t>PJ 338 FOLHA CORRIDA</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="D197" s="7" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="4" t="n">
         <v>351</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="5" t="inlineStr">
         <is>
           <t>PJ 351 CARTAO APRESENTACAO DO BENEFICIADO - SURSIS</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>UN.</t>
+      <c r="D198" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="4" t="n">
         <v>396</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="5" t="inlineStr">
         <is>
           <t>PJ 396 FICHA INFORMACAO DE EXAMES TECNICOS - JIJ</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="D199" s="7" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
+      <c r="A200" s="4" t="n">
         <v>418</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B200" s="5" t="inlineStr">
         <is>
           <t>PJ 418 FICHA ANDAMENTO CIVEL</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C200" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="D200" s="7" t="inlineStr">
         <is>
           <t>FC</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
+      <c r="A201" s="4" t="n">
         <v>423</v>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B201" s="5" t="inlineStr">
         <is>
           <t>PJ 423 FICHA ANDAMENTO PRECATORIA</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C201" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="D201" s="7" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
+      <c r="A202" s="4" t="n">
         <v>550</v>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B202" s="5" t="inlineStr">
         <is>
           <t>PJ 550 PEDIDO DE PREFERENCIA - PLENO</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C202" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="D202" s="7" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
+      <c r="A203" s="4" t="n">
         <v>676</v>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B203" s="5" t="inlineStr">
         <is>
           <t>PJ 676 - JIJ-OS-015</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C203" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="D203" s="7" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="4" t="n">
         <v>691</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="5" t="inlineStr">
         <is>
           <t>PJ 691 CAPA DE PROCESSO MATÉRIA CÍVEL (AZUL)</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="D204" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
+      <c r="A205" s="4" t="n">
         <v>692</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B205" s="5" t="inlineStr">
         <is>
           <t>PJ 692 CAPA DE PROCESSO MATÉRIA CRIMINAL (ROSA)</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C205" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="D205" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
+      <c r="A206" s="4" t="n">
         <v>693</v>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B206" s="5" t="inlineStr">
         <is>
           <t>PJ 693 CAPA DE PROCESSO COR VERDE (DIR. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C206" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="D206" s="7" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
+      <c r="A207" s="4" t="n">
         <v>694</v>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B207" s="5" t="inlineStr">
         <is>
           <t>PJ 694 CAPA DE PROCESSO COR AMARELA (DIR. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C207" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="D207" s="7" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
+      <c r="A208" s="4" t="n">
         <v>695</v>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B208" s="5" t="inlineStr">
         <is>
           <t>PJ 695 CAPA DE PROCESSO COR BRANCA (DIR. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C208" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="D208" s="7" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
+      <c r="A209" s="4" t="n">
         <v>696</v>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B209" s="5" t="inlineStr">
         <is>
           <t>PJ 696 CAPA DE PROCESSO COR CINZA (DIR. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C209" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="D209" s="7" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="4" t="n">
         <v>697</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="5" t="inlineStr">
         <is>
           <t>PJ 697 CAPA DE PROCESSO COR LARANJA (DIR. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="D210" s="7" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="4" t="n">
         <v>10251</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="5" t="inlineStr">
         <is>
           <t>PJ 700 - ENVELOPE PARDO VAI-VEM, 240X340, TIMBRE TRIBUNAL DE JUSTICA</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="D211" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="4" t="n">
         <v>11132</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="5" t="inlineStr">
         <is>
           <t>PJ 708 PEDIDO DE ACORDAO PARA JURISPRUDENCIA</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="D212" s="7" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="4" t="n">
         <v>11663</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="5" t="inlineStr">
         <is>
           <t>PJ 719 - RELATORIO DE ENTREGA DAS GUIAS DE CONDUCAO</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="D213" s="7" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="4" t="n">
         <v>12118</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="5" t="inlineStr">
         <is>
           <t>PJ 721 BLOCO DE PUBLICACOES</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="D214" s="7" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="4" t="n">
         <v>12332</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="5" t="inlineStr">
         <is>
           <t>PJ 722 FICHA CADASTRAL</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="D215" s="7" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="4" t="n">
         <v>16975</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="5" t="inlineStr">
         <is>
           <t>PJ 728 CAPA DE PROCESSO - AGRAVOS (DEP. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="D216" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="4" t="n">
         <v>17252</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="5" t="inlineStr">
         <is>
           <t>PJ 730 SOLICITAÇÃO DE CÓPIAS</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="D217" s="7" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="4" t="n">
         <v>17667</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="5" t="inlineStr">
         <is>
           <t>PJ 731 CAPA DE PROCESSO THEMIS ADMIN</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="D218" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="4" t="n">
         <v>22071</v>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="5" t="inlineStr">
         <is>
           <t>PJ 731B CAPA DE PROCESSO THEMIS ADMIN, EM CARTOLINA 240G NA COR VERDE, COM DIMENSÕES, VINCAGEM E FURAÇÃO SIMILARES À CAPA PJ 059</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C219" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="D219" s="7" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="4" t="n">
         <v>508</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="5" t="inlineStr">
         <is>
           <t>PJ-508 - CARTAO MARCACAO DE CONSULTAS, EM PAPEL AMARELO OURO 180 G/M², IMPRESSÃO EM TINTA OFF-SET PRETA, 1X0, FORMATO 6,5X9CM, CONFORME MODELO. ACONDICIONADAS EM PACOTES DE PAPEL KRAFT 80 G/M², FIBRA</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
+      <c r="D220" s="7" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="4" t="n">
         <v>24901</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="5" t="inlineStr">
         <is>
           <t>PJ-732 - FORMULÁRIO PARA USO DA DISTRIBUIÇÃO DO FORO, NO FORMATO 17,5X7,4CM.</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="6" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
+      <c r="D221" s="7" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="8" t="n">
         <v>4963</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="9" t="inlineStr">
         <is>
           <t>TOGA PARA DESEMBARGADOR E JUIZ, SOB MEDIDA OU, EM TAMANHOS DIVERSOS.</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C222" s="10" t="inlineStr">
         <is>
           <t>uniformes</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="D222" s="14" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4926,31 +5136,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>COMARCA</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>DATA LIMITE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="16" t="inlineStr">
         <is>
           <t>Salto do Jacuí</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="16" t="inlineStr">
         <is>
           <t>4º dia útil</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4968,7 +5178,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="29.42578125" customWidth="1" min="1" max="1"/>
     <col width="13.140625" customWidth="1" min="2" max="2"/>
     <col width="15.85546875" customWidth="1" min="3" max="3"/>
     <col width="19.140625" customWidth="1" min="4" max="4"/>
@@ -4985,301 +5195,467 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="17" t="inlineStr">
         <is>
           <t>COMARCA</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="18" t="inlineStr">
         <is>
           <t>codigoBem</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="17" t="inlineStr">
         <is>
           <t>dataAquisicao</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="17" t="inlineStr">
         <is>
           <t>dataTombamento</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="17" t="inlineStr">
         <is>
           <t>identificacao</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="17" t="inlineStr">
         <is>
           <t>valorImobilizado</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="17" t="inlineStr">
         <is>
           <t>valorAquisicao</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="17" t="inlineStr">
         <is>
           <t>Situação</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="17" t="inlineStr">
         <is>
           <t>Comarca</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="17" t="inlineStr">
         <is>
           <t>Unidade</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="17" t="inlineStr">
         <is>
           <t>Local</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Local.1</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="17" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="M1" s="17" t="inlineStr">
         <is>
           <t>TITULAR</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="17" t="inlineStr">
         <is>
           <t>INTERESSE NO LEILÃO</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="17" t="inlineStr">
         <is>
           <t>PADRÃO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SALTO DO JACUÍ </t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="16">
+        <f>I396</f>
+        <v/>
+      </c>
+      <c r="B2" s="19" t="n">
         <v>455285</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="16" t="inlineStr">
         <is>
           <t>28/09/2023</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="16" t="inlineStr">
         <is>
           <t>06/11/2023</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LEITOR BIOMÉTRICO - SERVENTIA EXTRAJUDICIAL - 
-LEITOR BIOMÉTRICO FUTRONIC FS8
-</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2" s="16" t="inlineStr">
+        <is>
+          <t>LEITOR BIOMÉTRICO - SERVENTIA EXTRAJUDICIAL -
+LEITOR BIOMÉTRICO FUTRONIC FS8</t>
+        </is>
+      </c>
+      <c r="F2" s="20" t="n">
         <v>185.9</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="16" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SALTO DO JACUÍ </t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" s="16" t="inlineStr">
+        <is>
+          <t>SALTO DO JACUÍ</t>
+        </is>
+      </c>
+      <c r="J2" s="16" t="inlineStr">
         <is>
           <t>EXTRAJUDICIAIS</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="16" t="inlineStr">
         <is>
           <t>0507 - Serviço Notarial (TN, TP)</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="16" t="n">
         <v>507</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="16" t="inlineStr">
         <is>
           <t>Jessica Alflen</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="16" t="inlineStr">
         <is>
           <t>Sem resposta</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="16" t="inlineStr">
         <is>
           <t>Padrão Extras</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SALTO DO JACUÍ </t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" s="16">
+        <f>I397</f>
+        <v/>
+      </c>
+      <c r="B3" s="19" t="n">
         <v>455286</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>28/09/2023</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="16" t="inlineStr">
         <is>
           <t>06/11/2023</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LEITOR BIOMÉTRICO - SERVENTIA EXTRAJUDICIAL - 
-LEITOR BIOMÉTRICO FUTRONIC FS8
-</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3" s="16" t="inlineStr">
+        <is>
+          <t>LEITOR BIOMÉTRICO - SERVENTIA EXTRAJUDICIAL -
+LEITOR BIOMÉTRICO FUTRONIC FS8</t>
+        </is>
+      </c>
+      <c r="F3" s="20" t="n">
         <v>185.9</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="16" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SALTO DO JACUÍ </t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" s="16" t="inlineStr">
+        <is>
+          <t>SALTO DO JACUÍ</t>
+        </is>
+      </c>
+      <c r="J3" s="16" t="inlineStr">
         <is>
           <t>EXTRAJUDICIAIS</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="16" t="inlineStr">
         <is>
           <t>0507 - Serviço Notarial (TN, TP)</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="16" t="n">
         <v>507</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="16" t="inlineStr">
         <is>
           <t>Jessica Alflen</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="16" t="inlineStr">
         <is>
           <t>Sem resposta</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="16" t="inlineStr">
         <is>
           <t>Padrão Extras</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SALTO DO JACUÍ </t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" s="16">
+        <f>I398</f>
+        <v/>
+      </c>
+      <c r="B4" s="19" t="n">
         <v>455287</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="16" t="inlineStr">
         <is>
           <t>28/09/2023</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="16" t="inlineStr">
         <is>
           <t>06/11/2023</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LEITOR BIOMÉTRICO - SERVENTIA EXTRAJUDICIAL - 
-LEITOR BIOMÉTRICO FUTRONIC FS8
-</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4" s="16" t="inlineStr">
+        <is>
+          <t>LEITOR BIOMÉTRICO - SERVENTIA EXTRAJUDICIAL -
+LEITOR BIOMÉTRICO FUTRONIC FS8</t>
+        </is>
+      </c>
+      <c r="F4" s="20" t="n">
         <v>185.9</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="16" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SALTO DO JACUÍ </t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" s="16" t="inlineStr">
+        <is>
+          <t>SALTO DO JACUÍ</t>
+        </is>
+      </c>
+      <c r="J4" s="16" t="inlineStr">
         <is>
           <t>EXTRAJUDICIAIS</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="16" t="inlineStr">
         <is>
           <t>0507 - Serviço Notarial (TN, TP)</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="16" t="n">
         <v>507</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="16" t="inlineStr">
         <is>
           <t>Jessica Alflen</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="16" t="inlineStr">
         <is>
           <t>Sem resposta</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="16" t="inlineStr">
         <is>
           <t>Padrão Extras</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="32.140625" customWidth="1" min="1" max="1"/>
+    <col width="23.28515625" customWidth="1" min="2" max="2"/>
+    <col width="23.140625" customWidth="1" min="3" max="3"/>
+    <col width="98.5703125" customWidth="1" min="4" max="4"/>
+    <col width="12.5703125" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="10.42578125" customWidth="1" min="7" max="7"/>
+    <col width="7.85546875" customWidth="1" min="8" max="8"/>
+    <col width="20.28515625" customWidth="1" min="9" max="9"/>
+    <col width="19.5703125" customWidth="1" min="10" max="10"/>
+    <col width="25.85546875" customWidth="1" min="11" max="11"/>
+    <col width="32.5703125" customWidth="1" min="12" max="12"/>
+    <col width="28.5703125" customWidth="1" min="13" max="13"/>
+    <col width="22" customWidth="1" min="14" max="14"/>
+    <col width="23.140625" customWidth="1" min="15" max="15"/>
+    <col width="9.140625" customWidth="1" min="16" max="16"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>COMARCA</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>SEI</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SITUAÇÃO</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DONATÁRIO</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>QTD BENS</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>MODALIDADE</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>C/U</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>LOTE</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>INSTRUÇÃO</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>SAÍDA DMP</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>ENCERRAMENTO</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>ULT. MOVIMENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>TIPO DE BENS</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>REPONSÁVEL</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>TEMPO TOTAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="21" t="inlineStr">
+        <is>
+          <t>Salto do Jacuí</t>
+        </is>
+      </c>
+      <c r="B2" s="21" t="inlineStr">
+        <is>
+          <t>8.2024.4636/000010-3</t>
+        </is>
+      </c>
+      <c r="C2" s="21" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+      <c r="D2" s="21" t="inlineStr">
+        <is>
+          <t>Escola Catelo Branco</t>
+        </is>
+      </c>
+      <c r="E2" s="21" t="n">
+        <v>42</v>
+      </c>
+      <c r="F2" s="21" t="inlineStr">
+        <is>
+          <t>DIRETA</t>
+        </is>
+      </c>
+      <c r="G2" s="21" t="n"/>
+      <c r="H2" s="21" t="n"/>
+      <c r="I2" s="22" t="n">
+        <v>45397</v>
+      </c>
+      <c r="J2" s="22" t="n">
+        <v>45412</v>
+      </c>
+      <c r="K2" s="22" t="n">
+        <v>45581</v>
+      </c>
+      <c r="L2" s="22" t="n">
+        <v>45608</v>
+      </c>
+      <c r="M2" s="21" t="inlineStr">
+        <is>
+          <t>MOBILIÁRIO</t>
+        </is>
+      </c>
+      <c r="N2" s="21" t="inlineStr">
+        <is>
+          <t>CONCLUÍDO</t>
+        </is>
+      </c>
+      <c r="O2" s="21">
+        <f>K417-I417</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5298,35 +5674,35 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="17" t="inlineStr">
         <is>
           <t>COMARCA</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="17" t="inlineStr">
         <is>
           <t>LOCAL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="16" t="inlineStr">
         <is>
           <t>SALTO DO JACUÍ</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="16" t="inlineStr">
         <is>
           <t>0507 - Serviço Notarial (TN, TP)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5347,230 +5723,74 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="23" t="inlineStr">
         <is>
           <t>COMARCA</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>NOME COMPLETO</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="23" t="inlineStr">
         <is>
           <t>CAPACITADO?</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>Salto do Jacuí</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>Aristeu Tiecher</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="25" t="inlineStr">
         <is>
           <t>SIM</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t>Salto do Jacuí</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="25" t="inlineStr">
         <is>
           <t>Laureci Eduardo Carvalho da Costa</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="25" t="inlineStr">
         <is>
           <t>NÃO</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>Salto do Jacuí</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>Marina Chaves Teikowski</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="25" t="inlineStr">
         <is>
           <t>NÃO</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30.28515625" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="19.42578125" customWidth="1" min="3" max="3"/>
-    <col width="17.28515625" customWidth="1" min="4" max="4"/>
-    <col width="34.28515625" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
-    <col width="15.7109375" customWidth="1" min="8" max="8"/>
-    <col width="20.5703125" customWidth="1" min="9" max="9"/>
-    <col width="22.85546875" customWidth="1" min="10" max="10"/>
-    <col width="16.140625" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="21.140625" customWidth="1" min="13" max="13"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>COMARCA</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SEI</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SITUAÇÃO</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MODALIDADE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DONATÁRIO</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TIPO DE BENS</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>INSTRUÇÃO</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>SAÍDA DMP</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>ENCERRAMENTO</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>QUANTIDADE BENS</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>REPONSÁVEL</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>TEMPO TOTAL</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>ULT. MOVIMENTAÇÃO</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Salto do Jacuí</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>8.2024.4636/000010-3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Concluído</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DIRETA</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Escola Catelo Branco</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MOBILIÁRIO</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>45412</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="J2" t="n">
-        <v>42</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>CONCLUÍDO</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>184</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>45608</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>